--- a/学生提交材料/个人日报/个人日报_侯永康.xlsx
+++ b/学生提交材料/个人日报/个人日报_侯永康.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="120">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -923,12 +923,150 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>侯永康</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.01.11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒店管理系统</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计报告的初步撰写</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根据学习的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>QSqlQueryModle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，修改项目中要使用多表查询。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组讨论共同解决</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客房管理系统代码完善</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习qt知识完善设计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计报告的初步撰写</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>组内开会分块撰写</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯永康</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.01.12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒店管理系统</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.1.12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体框架的完善搭建</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>QT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信号和槽，事件过滤器</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上课学习，课后复习自学</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善酒店框架的搭建</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>组内讨论共同完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="68">
+  <fonts count="69">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1356,6 +1494,12 @@
       <sz val="10"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2034,7 +2178,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2376,6 +2520,18 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2462,6 +2618,10 @@
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2556,7 +2716,15 @@
     <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -17203,17 +17371,17 @@
       <c r="I14" s="27"/>
     </row>
     <row r="15" spans="1:9" s="24" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A15" s="106" t="s">
+      <c r="A15" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="107"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
     </row>
     <row r="16" spans="1:9" s="24" customFormat="1" ht="17.399999999999999">
       <c r="A16" s="28"/>
@@ -17535,8 +17703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -17555,17 +17723,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -17582,19 +17750,27 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="106" t="s">
+        <v>98</v>
+      </c>
       <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="107" t="s">
+        <v>100</v>
+      </c>
       <c r="H3" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -17614,40 +17790,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="159"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="C5" s="162" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="C6" s="118" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="C7" s="121" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -17666,19 +17848,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -17687,107 +17869,131 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="36"/>
+      <c r="C10" s="128" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="35">
+        <v>6</v>
+      </c>
+      <c r="G10" s="163" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="108" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="36"/>
+      <c r="C11" s="164" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="35">
+        <v>2</v>
+      </c>
+      <c r="G11" s="163" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="108" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="36"/>
+      <c r="C12" s="164" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="35">
+        <v>1</v>
+      </c>
+      <c r="G12" s="163" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="108" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="C13" s="158"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+        <v>9</v>
+      </c>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -17807,57 +18013,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="144"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -17925,8 +18131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -17945,17 +18151,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -17972,19 +18178,27 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="106" t="s">
+        <v>109</v>
+      </c>
       <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="107" t="s">
+        <v>111</v>
+      </c>
       <c r="H3" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -18004,40 +18218,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="159"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="C5" s="162" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="C6" s="118" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="C7" s="121" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -18056,19 +18276,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18077,107 +18297,123 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="36"/>
+      <c r="C10" s="128" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="35">
+        <v>4</v>
+      </c>
+      <c r="G10" s="163" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="108" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="36"/>
+      <c r="C11" s="164" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="35">
+        <v>4</v>
+      </c>
+      <c r="G11" s="163" t="s">
+        <v>118</v>
+      </c>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="108" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="C13" s="158"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+        <v>8</v>
+      </c>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -18197,57 +18433,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="144"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -18335,17 +18571,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18394,40 +18630,40 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="159"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -18446,19 +18682,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18467,107 +18703,107 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="C13" s="158"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -18587,57 +18823,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="144"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -18725,17 +18961,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18784,40 +19020,40 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="159"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -18836,19 +19072,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18857,107 +19093,107 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="C13" s="158"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -18977,57 +19213,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="144"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -19115,17 +19351,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19174,40 +19410,40 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="159"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19226,19 +19462,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19247,107 +19483,107 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="C13" s="158"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19367,57 +19603,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="144"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -19505,17 +19741,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19564,40 +19800,40 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="159"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19616,19 +19852,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19637,107 +19873,107 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="C13" s="158"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19757,57 +19993,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="144"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -19895,17 +20131,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19954,40 +20190,40 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="159"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20006,19 +20242,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20027,107 +20263,107 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="C13" s="158"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20147,57 +20383,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="144"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -20285,17 +20521,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20344,40 +20580,40 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="159"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20396,19 +20632,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20417,107 +20653,107 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="C13" s="158"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20537,57 +20773,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="144"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -20675,17 +20911,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20734,40 +20970,40 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="159"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20786,19 +21022,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20807,107 +21043,107 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="C13" s="158"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20927,57 +21163,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="144"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -21065,17 +21301,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -21124,40 +21360,40 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="159"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -21176,19 +21412,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -21197,107 +21433,107 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="C13" s="158"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -21317,57 +21553,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="144"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -21738,16 +21974,16 @@
       <c r="H15" s="78"/>
     </row>
     <row r="16" spans="1:9" s="79" customFormat="1" ht="45">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
     </row>
     <row r="17" spans="1:8" s="79" customFormat="1" ht="16.2">
       <c r="A17" s="80"/>
@@ -21937,15 +22173,15 @@
       <c r="A34" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="109"/>
-      <c r="C34" s="109"/>
-      <c r="D34" s="109"/>
+      <c r="B34" s="112"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="112"/>
       <c r="E34" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="109"/>
-      <c r="G34" s="109"/>
-      <c r="H34" s="109"/>
+      <c r="F34" s="112"/>
+      <c r="G34" s="112"/>
+      <c r="H34" s="112"/>
     </row>
     <row r="35" spans="1:8" s="72" customFormat="1" ht="18">
       <c r="A35" s="77"/>
@@ -22022,17 +22258,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -22089,46 +22325,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -22147,19 +22383,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -22168,19 +22404,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="101">
         <v>0.5</v>
       </c>
-      <c r="G10" s="126" t="s">
+      <c r="G10" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="104" t="s">
         <v>52</v>
       </c>
@@ -22189,19 +22425,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="124" t="s">
+      <c r="C11" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="101">
         <v>1</v>
       </c>
-      <c r="G11" s="126" t="s">
+      <c r="G11" s="129" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="104" t="s">
         <v>52</v>
       </c>
@@ -22210,19 +22446,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="129" t="s">
+      <c r="C12" s="132" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="101">
         <v>4</v>
       </c>
-      <c r="G12" s="130" t="s">
+      <c r="G12" s="133" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="104" t="s">
         <v>52</v>
       </c>
@@ -22231,19 +22467,19 @@
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="158" t="s">
+      <c r="C13" s="134" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="101">
         <v>2</v>
       </c>
-      <c r="G13" s="126" t="s">
+      <c r="G13" s="129" t="s">
         <v>82</v>
       </c>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="104" t="s">
         <v>52</v>
       </c>
@@ -22252,55 +22488,55 @@
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="101"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="104"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="101"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="101"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="105">
         <f>SUM(F10:F16)</f>
         <v>7.5</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -22320,57 +22556,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="144"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -22458,17 +22694,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -22525,46 +22761,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="118" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -22583,19 +22819,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -22604,19 +22840,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="35">
         <v>2</v>
       </c>
-      <c r="G10" s="126" t="s">
+      <c r="G10" s="129" t="s">
         <v>84</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="104" t="s">
         <v>52</v>
       </c>
@@ -22625,19 +22861,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="129" t="s">
+      <c r="C11" s="132" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="35">
         <v>6</v>
       </c>
-      <c r="G11" s="126" t="s">
+      <c r="G11" s="129" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="104" t="s">
         <v>52</v>
       </c>
@@ -22646,19 +22882,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="124" t="s">
+      <c r="C12" s="127" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="35">
         <v>3</v>
       </c>
-      <c r="G12" s="130" t="s">
+      <c r="G12" s="133" t="s">
         <v>87</v>
       </c>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="104" t="s">
         <v>52</v>
       </c>
@@ -22667,68 +22903,68 @@
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="C13" s="158"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>11</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -22748,57 +22984,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="144"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -22886,17 +23122,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -22953,46 +23189,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="155" t="s">
+      <c r="C5" s="159" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23011,19 +23247,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23032,19 +23268,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="126" t="s">
+      <c r="G10" s="129" t="s">
         <v>89</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="104" t="s">
         <v>52</v>
       </c>
@@ -23053,19 +23289,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="129" t="s">
+      <c r="C11" s="132" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="35">
         <v>6</v>
       </c>
-      <c r="G11" s="130" t="s">
+      <c r="G11" s="133" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="104" t="s">
         <v>52</v>
       </c>
@@ -23074,19 +23310,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="124" t="s">
+      <c r="C12" s="127" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="35">
         <v>2</v>
       </c>
-      <c r="G12" s="130" t="s">
+      <c r="G12" s="133" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="104" t="s">
         <v>52</v>
       </c>
@@ -23095,68 +23331,68 @@
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="C13" s="158"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23176,57 +23412,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="144"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -23314,17 +23550,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23381,46 +23617,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23439,19 +23675,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23460,19 +23696,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="126" t="s">
+      <c r="G10" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="104" t="s">
         <v>52</v>
       </c>
@@ -23481,19 +23717,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="124" t="s">
+      <c r="C11" s="127" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="126" t="s">
+      <c r="G11" s="129" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="104" t="s">
         <v>52</v>
       </c>
@@ -23502,19 +23738,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="124" t="s">
+      <c r="C12" s="127" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="35">
         <v>4</v>
       </c>
-      <c r="G12" s="126" t="s">
+      <c r="G12" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="104" t="s">
         <v>52</v>
       </c>
@@ -23523,68 +23759,68 @@
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="C13" s="158"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23604,61 +23840,61 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="144"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="156" t="s">
+      <c r="C20" s="160" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="145"/>
-      <c r="E20" s="157" t="s">
+      <c r="D20" s="149"/>
+      <c r="E20" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -23746,17 +23982,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23813,46 +24049,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="121" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23871,19 +24107,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23892,19 +24128,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="127" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="35">
         <v>6</v>
       </c>
-      <c r="G10" s="126" t="s">
+      <c r="G10" s="129" t="s">
         <v>94</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="104" t="s">
         <v>52</v>
       </c>
@@ -23913,19 +24149,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="124" t="s">
+      <c r="C11" s="127" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="126" t="s">
+      <c r="G11" s="129" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="104" t="s">
         <v>52</v>
       </c>
@@ -23934,81 +24170,81 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="129"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="104"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="C13" s="158"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>10</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -24028,61 +24264,61 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="144"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="156" t="s">
+      <c r="C20" s="160" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="145"/>
-      <c r="E20" s="157" t="s">
+      <c r="D20" s="149"/>
+      <c r="E20" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -24150,7 +24386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C13" sqref="C13:E13"/>
     </sheetView>
   </sheetViews>
@@ -24170,17 +24406,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -24237,46 +24473,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="115" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -24295,19 +24531,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -24316,19 +24552,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="127" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="126" t="s">
+      <c r="G10" s="129" t="s">
         <v>97</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="104" t="s">
         <v>52</v>
       </c>
@@ -24337,19 +24573,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="124" t="s">
+      <c r="C11" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="35">
         <v>2</v>
       </c>
-      <c r="G11" s="126" t="s">
+      <c r="G11" s="129" t="s">
         <v>75</v>
       </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="104" t="s">
         <v>52</v>
       </c>
@@ -24358,19 +24594,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="129" t="s">
+      <c r="C12" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="35">
         <v>6</v>
       </c>
-      <c r="G12" s="130" t="s">
+      <c r="G12" s="133" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="104" t="s">
         <v>52</v>
       </c>
@@ -24379,19 +24615,19 @@
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="158" t="s">
+      <c r="C13" s="134" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35">
         <v>2</v>
       </c>
-      <c r="G13" s="126" t="s">
+      <c r="G13" s="129" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="104" t="s">
         <v>52</v>
       </c>
@@ -24400,55 +24636,55 @@
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>14</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -24468,57 +24704,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="144"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">

--- a/学生提交材料/个人日报/个人日报_侯永康.xlsx
+++ b/学生提交材料/个人日报/个人日报_侯永康.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176" firstSheet="2" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="133">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1055,6 +1055,83 @@
   </si>
   <si>
     <t>组内讨论共同完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯永康</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.1.13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒店管理系统</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次代码评审</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.1.13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码评审</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师上课进行了我们组的代码评审，指出了做的不好的地方的，让我们改正</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习了qss基本知识</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上课学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>课后复习</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善项目框架，找有关自己负责模块的资料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组讨论共同完成</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -18131,8 +18208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -18303,7 +18380,7 @@
       <c r="D10" s="128"/>
       <c r="E10" s="128"/>
       <c r="F10" s="35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G10" s="163" t="s">
         <v>115</v>
@@ -18409,7 +18486,7 @@
       <c r="E17" s="140"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G17" s="141"/>
       <c r="H17" s="142"/>
@@ -18551,8 +18628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -18598,19 +18675,27 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="106" t="s">
+        <v>120</v>
+      </c>
       <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>124</v>
+      </c>
       <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="107" t="s">
+        <v>122</v>
+      </c>
       <c r="H3" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -18630,7 +18715,9 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="165"/>
+      <c r="C5" s="162" t="s">
+        <v>123</v>
+      </c>
       <c r="D5" s="116"/>
       <c r="E5" s="116"/>
       <c r="F5" s="116"/>
@@ -18643,7 +18730,9 @@
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118"/>
+      <c r="C6" s="118" t="s">
+        <v>121</v>
+      </c>
       <c r="D6" s="119"/>
       <c r="E6" s="119"/>
       <c r="F6" s="119"/>
@@ -18656,7 +18745,9 @@
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121"/>
+      <c r="C7" s="121" t="s">
+        <v>121</v>
+      </c>
       <c r="D7" s="122"/>
       <c r="E7" s="122"/>
       <c r="F7" s="122"/>
@@ -18703,40 +18794,64 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="128"/>
+      <c r="C10" s="164" t="s">
+        <v>125</v>
+      </c>
       <c r="D10" s="128"/>
       <c r="E10" s="128"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="137"/>
+      <c r="F10" s="35">
+        <v>4</v>
+      </c>
+      <c r="G10" s="163" t="s">
+        <v>126</v>
+      </c>
       <c r="H10" s="130"/>
       <c r="I10" s="131"/>
-      <c r="J10" s="36"/>
+      <c r="J10" s="108" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="128"/>
+      <c r="C11" s="164" t="s">
+        <v>128</v>
+      </c>
       <c r="D11" s="128"/>
       <c r="E11" s="128"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="137"/>
+      <c r="F11" s="35">
+        <v>4</v>
+      </c>
+      <c r="G11" s="137" t="s">
+        <v>129</v>
+      </c>
       <c r="H11" s="130"/>
       <c r="I11" s="131"/>
-      <c r="J11" s="36"/>
+      <c r="J11" s="108" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="128"/>
+      <c r="C12" s="164" t="s">
+        <v>130</v>
+      </c>
       <c r="D12" s="128"/>
       <c r="E12" s="128"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="137"/>
+      <c r="F12" s="35">
+        <v>3</v>
+      </c>
+      <c r="G12" s="163" t="s">
+        <v>131</v>
+      </c>
       <c r="H12" s="130"/>
       <c r="I12" s="131"/>
-      <c r="J12" s="36"/>
+      <c r="J12" s="108" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="37">
@@ -18799,7 +18914,7 @@
       <c r="E17" s="140"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G17" s="141"/>
       <c r="H17" s="142"/>

--- a/学生提交材料/个人日报/个人日报_侯永康.xlsx
+++ b/学生提交材料/个人日报/个人日报_侯永康.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176" firstSheet="2" activeTab="11"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176" firstSheet="2" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="143">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1132,6 +1132,46 @@
   </si>
   <si>
     <t>小组讨论共同完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯永康</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.01.14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒店管理系统</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目代码编写</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.01.14——2021.01.16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目代码编写</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善项目的功能与代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习qt多条件查询</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据老师对知识的讲解进行学习</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2619,6 +2659,116 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2669,116 +2819,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2793,16 +2833,16 @@
     <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2871,7 +2911,7 @@
         <xdr:cNvPr id="3080" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000080C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000080C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2892,7 +2932,7 @@
           <xdr:cNvPr id="3081" name="Freeform 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000090C0000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000090C0000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3047,7 +3087,7 @@
           <xdr:cNvPr id="3082" name="Freeform 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A0C0000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A0C0000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4439,7 +4479,7 @@
           <xdr:cNvPr id="3083" name="Freeform 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B0C0000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B0C0000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5254,7 +5294,7 @@
           <xdr:cNvPr id="3084" name="Freeform 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C0C0000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C0C0000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6813,7 +6853,7 @@
           <xdr:cNvPr id="3085" name="Freeform 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D0C0000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D0C0000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8358,7 +8398,7 @@
           <xdr:cNvPr id="3086" name="Freeform 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E0C0000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E0C0000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9359,7 +9399,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64C6AEC7-D6DB-421D-AFCC-5032A29228A3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64C6AEC7-D6DB-421D-AFCC-5032A29228A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9438,7 +9478,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7924CB87-139A-4151-A923-E6C34B3A4A62}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7924CB87-139A-4151-A923-E6C34B3A4A62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9517,7 +9557,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4CDC39A9-9223-4FB4-8BD5-51889B5F93A9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CDC39A9-9223-4FB4-8BD5-51889B5F93A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9596,7 +9636,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{52344C10-06A6-46D3-8B6D-CB9BA5F62B0B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52344C10-06A6-46D3-8B6D-CB9BA5F62B0B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9675,7 +9715,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D24B0C4D-D632-48F5-B58A-E106EA2FEA90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D24B0C4D-D632-48F5-B58A-E106EA2FEA90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9754,7 +9794,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9DC785F3-D96F-4B7B-B304-6BA696CAA6C9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DC785F3-D96F-4B7B-B304-6BA696CAA6C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9833,7 +9873,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{65D7A1B8-46FC-4E0C-95DF-793A44A1606F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65D7A1B8-46FC-4E0C-95DF-793A44A1606F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9912,7 +9952,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29D9835E-C84B-4C51-B84B-27F6EA03D786}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29D9835E-C84B-4C51-B84B-27F6EA03D786}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9991,7 +10031,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41BDA274-19BF-48F1-B9C2-5C5AF330D1A8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41BDA274-19BF-48F1-B9C2-5C5AF330D1A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10070,7 +10110,7 @@
         <xdr:cNvPr id="4104" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008100000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008100000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10091,7 +10131,7 @@
           <xdr:cNvPr id="4105" name="Freeform 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009100000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009100000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10246,7 +10286,7 @@
           <xdr:cNvPr id="4106" name="Freeform 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A100000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A100000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11638,7 +11678,7 @@
           <xdr:cNvPr id="4107" name="Freeform 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B100000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B100000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12453,7 +12493,7 @@
           <xdr:cNvPr id="4108" name="Freeform 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C100000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C100000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14012,7 +14052,7 @@
           <xdr:cNvPr id="4109" name="Freeform 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000D100000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D100000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15557,7 +15597,7 @@
           <xdr:cNvPr id="4110" name="Freeform 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000E100000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E100000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16558,7 +16598,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{364415B3-9FA3-46FD-B2EE-2D1E82F564BA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{364415B3-9FA3-46FD-B2EE-2D1E82F564BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16637,7 +16677,7 @@
         <xdr:cNvPr id="2050" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16716,7 +16756,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E7A8128-D999-4C13-91B0-F974226B4F14}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E7A8128-D999-4C13-91B0-F974226B4F14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16795,7 +16835,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0ED7B0B0-AF00-4754-A9B1-F6266D2BEA32}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ED7B0B0-AF00-4754-A9B1-F6266D2BEA32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16874,7 +16914,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B105078-058B-4F7F-8B52-188E14B44B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B105078-058B-4F7F-8B52-188E14B44B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16953,7 +16993,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DE6DF39B-86B0-4E5E-B074-3E832FEB1B13}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE6DF39B-86B0-4E5E-B074-3E832FEB1B13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17032,7 +17072,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E2305AC-890F-448D-94DD-D55DBCD02906}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E2305AC-890F-448D-94DD-D55DBCD02906}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17800,17 +17840,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -17867,46 +17907,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="162" t="s">
+      <c r="C5" s="164" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="149" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="152" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -17925,19 +17965,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -17946,19 +17986,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="128" t="s">
+      <c r="C10" s="123" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="35">
         <v>6</v>
       </c>
-      <c r="G10" s="163" t="s">
+      <c r="G10" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="108" t="s">
         <v>108</v>
       </c>
@@ -17967,19 +18007,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="164" t="s">
+      <c r="C11" s="163" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="35">
         <v>2</v>
       </c>
-      <c r="G11" s="163" t="s">
+      <c r="G11" s="162" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="108" t="s">
         <v>108</v>
       </c>
@@ -17988,19 +18028,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="164" t="s">
+      <c r="C12" s="163" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="35">
         <v>1</v>
       </c>
-      <c r="G12" s="163" t="s">
+      <c r="G12" s="162" t="s">
         <v>107</v>
       </c>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="108" t="s">
         <v>108</v>
       </c>
@@ -18010,67 +18050,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>9</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -18090,57 +18130,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -18160,36 +18200,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -18228,17 +18268,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18295,46 +18335,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="162" t="s">
+      <c r="C5" s="164" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="149" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="152" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -18353,19 +18393,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18374,19 +18414,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="128" t="s">
+      <c r="C10" s="123" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="35">
         <v>6</v>
       </c>
-      <c r="G10" s="163" t="s">
+      <c r="G10" s="162" t="s">
         <v>115</v>
       </c>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="108" t="s">
         <v>116</v>
       </c>
@@ -18395,19 +18435,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="164" t="s">
+      <c r="C11" s="163" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="163" t="s">
+      <c r="G11" s="162" t="s">
         <v>118</v>
       </c>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="108" t="s">
         <v>119</v>
       </c>
@@ -18416,13 +18456,13 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -18430,67 +18470,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>10</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -18510,57 +18550,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -18580,36 +18620,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -18628,7 +18668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -18648,17 +18688,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18715,46 +18755,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="162" t="s">
+      <c r="C5" s="164" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="149" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="152" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -18773,19 +18813,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18794,19 +18834,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="164" t="s">
+      <c r="C10" s="163" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="163" t="s">
+      <c r="G10" s="162" t="s">
         <v>126</v>
       </c>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="108" t="s">
         <v>127</v>
       </c>
@@ -18815,19 +18855,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="164" t="s">
+      <c r="C11" s="163" t="s">
         <v>128</v>
       </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="137" t="s">
+      <c r="G11" s="124" t="s">
         <v>129</v>
       </c>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="108" t="s">
         <v>127</v>
       </c>
@@ -18836,19 +18876,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="164" t="s">
+      <c r="C12" s="163" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="35">
         <v>3</v>
       </c>
-      <c r="G12" s="163" t="s">
+      <c r="G12" s="162" t="s">
         <v>131</v>
       </c>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="108" t="s">
         <v>132</v>
       </c>
@@ -18858,67 +18898,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>11</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -18938,57 +18978,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -19008,36 +19048,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -19056,8 +19096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -19076,17 +19116,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19103,19 +19143,27 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="106" t="s">
+        <v>133</v>
+      </c>
       <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>134</v>
+      </c>
       <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="107" t="s">
+        <v>135</v>
+      </c>
       <c r="H3" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -19135,40 +19183,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="165"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="C5" s="164" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="C6" s="149" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="C7" s="152" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19187,19 +19241,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19208,39 +19262,55 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="36"/>
+      <c r="C10" s="163" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="35">
+        <v>9</v>
+      </c>
+      <c r="G10" s="162" t="s">
+        <v>139</v>
+      </c>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="108" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="36"/>
+      <c r="C11" s="163" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="35">
+        <v>3</v>
+      </c>
+      <c r="G11" s="162" t="s">
+        <v>141</v>
+      </c>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="108" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -19248,67 +19318,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
+        <v>12</v>
+      </c>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19328,57 +19398,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -19398,36 +19468,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -19466,17 +19536,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19526,39 +19596,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="165"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19577,19 +19647,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19598,39 +19668,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -19638,67 +19708,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19718,57 +19788,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -19788,36 +19858,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -19856,17 +19926,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19916,39 +19986,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="165"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19967,19 +20037,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19988,39 +20058,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20028,67 +20098,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20108,57 +20178,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -20178,36 +20248,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -20246,17 +20316,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20306,39 +20376,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="165"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20357,19 +20427,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20378,39 +20448,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20418,67 +20488,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20498,57 +20568,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -20568,36 +20638,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -20636,17 +20706,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20696,39 +20766,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="165"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20747,19 +20817,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20768,39 +20838,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20808,67 +20878,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20888,57 +20958,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -20958,36 +21028,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -21026,17 +21096,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -21086,39 +21156,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="165"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -21137,19 +21207,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -21158,39 +21228,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -21198,67 +21268,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -21278,57 +21348,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -21348,36 +21418,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -21416,17 +21486,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -21476,39 +21546,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="165"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -21527,19 +21597,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -21548,39 +21618,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -21588,67 +21658,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -21668,57 +21738,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -21738,36 +21808,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -22373,17 +22443,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -22440,46 +22510,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="115" t="s">
+      <c r="C5" s="146" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="149" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="152" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -22498,19 +22568,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -22519,19 +22589,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="127" t="s">
+      <c r="C10" s="141" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="101">
         <v>0.5</v>
       </c>
-      <c r="G10" s="129" t="s">
+      <c r="G10" s="140" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="104" t="s">
         <v>52</v>
       </c>
@@ -22540,19 +22610,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="101">
         <v>1</v>
       </c>
-      <c r="G11" s="129" t="s">
+      <c r="G11" s="140" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="104" t="s">
         <v>52</v>
       </c>
@@ -22561,19 +22631,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="132" t="s">
+      <c r="C12" s="142" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="101">
         <v>4</v>
       </c>
-      <c r="G12" s="133" t="s">
+      <c r="G12" s="143" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="104" t="s">
         <v>52</v>
       </c>
@@ -22582,19 +22652,19 @@
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="134" t="s">
+      <c r="C13" s="137" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="101">
         <v>2</v>
       </c>
-      <c r="G13" s="129" t="s">
+      <c r="G13" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="104" t="s">
         <v>52</v>
       </c>
@@ -22603,55 +22673,55 @@
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="127"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="141"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="101"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="104"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="101"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="101"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="105">
         <f>SUM(F10:F16)</f>
         <v>7.5</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -22671,57 +22741,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -22741,36 +22811,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -22809,17 +22879,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -22876,46 +22946,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="115" t="s">
+      <c r="C5" s="146" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="149" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="152" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -22934,19 +23004,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -22955,19 +23025,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="127" t="s">
+      <c r="C10" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="35">
         <v>2</v>
       </c>
-      <c r="G10" s="129" t="s">
+      <c r="G10" s="140" t="s">
         <v>84</v>
       </c>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="104" t="s">
         <v>52</v>
       </c>
@@ -22976,19 +23046,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="132" t="s">
+      <c r="C11" s="142" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="35">
         <v>6</v>
       </c>
-      <c r="G11" s="129" t="s">
+      <c r="G11" s="140" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="104" t="s">
         <v>52</v>
       </c>
@@ -22997,19 +23067,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="127" t="s">
+      <c r="C12" s="141" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="35">
         <v>3</v>
       </c>
-      <c r="G12" s="133" t="s">
+      <c r="G12" s="143" t="s">
         <v>87</v>
       </c>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="104" t="s">
         <v>52</v>
       </c>
@@ -23019,67 +23089,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>11</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23099,57 +23169,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -23169,6 +23239,28 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C22:D22"/>
@@ -23177,28 +23269,6 @@
     <mergeCell ref="E19:J19"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -23237,17 +23307,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23307,43 +23377,43 @@
       <c r="C5" s="159" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="149" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="152" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23362,19 +23432,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23383,19 +23453,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="127" t="s">
+      <c r="C10" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="129" t="s">
+      <c r="G10" s="140" t="s">
         <v>89</v>
       </c>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="104" t="s">
         <v>52</v>
       </c>
@@ -23404,19 +23474,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="132" t="s">
+      <c r="C11" s="142" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="35">
         <v>6</v>
       </c>
-      <c r="G11" s="133" t="s">
+      <c r="G11" s="143" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="104" t="s">
         <v>52</v>
       </c>
@@ -23425,19 +23495,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="127" t="s">
+      <c r="C12" s="141" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="35">
         <v>2</v>
       </c>
-      <c r="G12" s="133" t="s">
+      <c r="G12" s="143" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="104" t="s">
         <v>52</v>
       </c>
@@ -23447,67 +23517,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23527,57 +23597,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -23597,36 +23667,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -23665,17 +23735,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23732,46 +23802,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="115" t="s">
+      <c r="C5" s="146" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="149" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="152" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23790,19 +23860,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23811,19 +23881,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="127" t="s">
+      <c r="C10" s="141" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="129" t="s">
+      <c r="G10" s="140" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="104" t="s">
         <v>52</v>
       </c>
@@ -23832,19 +23902,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="141" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="129" t="s">
+      <c r="G11" s="140" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="104" t="s">
         <v>52</v>
       </c>
@@ -23853,19 +23923,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="127" t="s">
+      <c r="C12" s="141" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="35">
         <v>4</v>
       </c>
-      <c r="G12" s="129" t="s">
+      <c r="G12" s="140" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="104" t="s">
         <v>52</v>
       </c>
@@ -23875,67 +23945,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23955,18 +24025,18 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
@@ -23975,41 +24045,41 @@
       <c r="C20" s="160" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="149"/>
+      <c r="D20" s="114"/>
       <c r="E20" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -24029,36 +24099,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -24097,17 +24167,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -24164,46 +24234,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="115" t="s">
+      <c r="C5" s="146" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="149" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="152" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -24222,19 +24292,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -24243,19 +24313,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="127" t="s">
+      <c r="C10" s="141" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="35">
         <v>6</v>
       </c>
-      <c r="G10" s="129" t="s">
+      <c r="G10" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="104" t="s">
         <v>52</v>
       </c>
@@ -24264,19 +24334,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="141" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="129" t="s">
+      <c r="G11" s="140" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="104" t="s">
         <v>52</v>
       </c>
@@ -24285,13 +24355,13 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="132"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="C12" s="142"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="G12" s="143"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="104"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -24299,67 +24369,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>10</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -24379,18 +24449,18 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
@@ -24399,41 +24469,41 @@
       <c r="C20" s="160" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="149"/>
+      <c r="D20" s="114"/>
       <c r="E20" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -24453,36 +24523,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -24521,17 +24591,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -24588,46 +24658,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="115" t="s">
+      <c r="C5" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="149" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="152" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -24646,19 +24716,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -24667,19 +24737,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="127" t="s">
+      <c r="C10" s="141" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="129" t="s">
+      <c r="G10" s="140" t="s">
         <v>97</v>
       </c>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="104" t="s">
         <v>52</v>
       </c>
@@ -24688,19 +24758,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="141" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="35">
         <v>2</v>
       </c>
-      <c r="G11" s="129" t="s">
+      <c r="G11" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="104" t="s">
         <v>52</v>
       </c>
@@ -24709,19 +24779,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="132" t="s">
+      <c r="C12" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="35">
         <v>6</v>
       </c>
-      <c r="G12" s="133" t="s">
+      <c r="G12" s="143" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="104" t="s">
         <v>52</v>
       </c>
@@ -24730,19 +24800,19 @@
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="134" t="s">
+      <c r="C13" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="35">
         <v>2</v>
       </c>
-      <c r="G13" s="129" t="s">
+      <c r="G13" s="140" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="104" t="s">
         <v>52</v>
       </c>
@@ -24751,55 +24821,55 @@
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>14</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -24819,57 +24889,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -24889,36 +24959,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">

--- a/学生提交材料/个人日报/个人日报_侯永康.xlsx
+++ b/学生提交材料/个人日报/个人日报_侯永康.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176" firstSheet="2" activeTab="12"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176" firstSheet="2" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="151">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1172,6 +1172,38 @@
   </si>
   <si>
     <t>根据老师对知识的讲解进行学习</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯永康</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.01.15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒店管理系统</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目代码的编写</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.01.14-2021.01.16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码的编写</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>观看老师视频，小组讨论得出</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2659,116 +2691,6 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2819,6 +2741,116 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2833,16 +2865,16 @@
     <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2911,7 +2943,7 @@
         <xdr:cNvPr id="3080" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000080C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000080C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2932,7 +2964,7 @@
           <xdr:cNvPr id="3081" name="Freeform 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000090C0000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000090C0000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3087,7 +3119,7 @@
           <xdr:cNvPr id="3082" name="Freeform 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A0C0000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A0C0000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4479,7 +4511,7 @@
           <xdr:cNvPr id="3083" name="Freeform 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B0C0000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B0C0000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5294,7 +5326,7 @@
           <xdr:cNvPr id="3084" name="Freeform 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C0C0000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C0C0000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6853,7 +6885,7 @@
           <xdr:cNvPr id="3085" name="Freeform 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D0C0000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D0C0000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8398,7 +8430,7 @@
           <xdr:cNvPr id="3086" name="Freeform 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E0C0000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E0C0000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9399,7 +9431,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64C6AEC7-D6DB-421D-AFCC-5032A29228A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64C6AEC7-D6DB-421D-AFCC-5032A29228A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9478,7 +9510,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7924CB87-139A-4151-A923-E6C34B3A4A62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7924CB87-139A-4151-A923-E6C34B3A4A62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9557,7 +9589,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CDC39A9-9223-4FB4-8BD5-51889B5F93A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4CDC39A9-9223-4FB4-8BD5-51889B5F93A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9636,7 +9668,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52344C10-06A6-46D3-8B6D-CB9BA5F62B0B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{52344C10-06A6-46D3-8B6D-CB9BA5F62B0B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9715,7 +9747,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D24B0C4D-D632-48F5-B58A-E106EA2FEA90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D24B0C4D-D632-48F5-B58A-E106EA2FEA90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9794,7 +9826,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DC785F3-D96F-4B7B-B304-6BA696CAA6C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9DC785F3-D96F-4B7B-B304-6BA696CAA6C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9873,7 +9905,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65D7A1B8-46FC-4E0C-95DF-793A44A1606F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{65D7A1B8-46FC-4E0C-95DF-793A44A1606F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9952,7 +9984,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29D9835E-C84B-4C51-B84B-27F6EA03D786}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29D9835E-C84B-4C51-B84B-27F6EA03D786}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10031,7 +10063,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41BDA274-19BF-48F1-B9C2-5C5AF330D1A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41BDA274-19BF-48F1-B9C2-5C5AF330D1A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10110,7 +10142,7 @@
         <xdr:cNvPr id="4104" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008100000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008100000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10131,7 +10163,7 @@
           <xdr:cNvPr id="4105" name="Freeform 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009100000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009100000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10286,7 +10318,7 @@
           <xdr:cNvPr id="4106" name="Freeform 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A100000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A100000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11678,7 +11710,7 @@
           <xdr:cNvPr id="4107" name="Freeform 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B100000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B100000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12493,7 +12525,7 @@
           <xdr:cNvPr id="4108" name="Freeform 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C100000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C100000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14052,7 +14084,7 @@
           <xdr:cNvPr id="4109" name="Freeform 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D100000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000D100000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15597,7 +15629,7 @@
           <xdr:cNvPr id="4110" name="Freeform 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E100000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000E100000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16598,7 +16630,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{364415B3-9FA3-46FD-B2EE-2D1E82F564BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{364415B3-9FA3-46FD-B2EE-2D1E82F564BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16677,7 +16709,7 @@
         <xdr:cNvPr id="2050" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16756,7 +16788,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E7A8128-D999-4C13-91B0-F974226B4F14}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E7A8128-D999-4C13-91B0-F974226B4F14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16835,7 +16867,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ED7B0B0-AF00-4754-A9B1-F6266D2BEA32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0ED7B0B0-AF00-4754-A9B1-F6266D2BEA32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16914,7 +16946,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B105078-058B-4F7F-8B52-188E14B44B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B105078-058B-4F7F-8B52-188E14B44B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16993,7 +17025,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE6DF39B-86B0-4E5E-B074-3E832FEB1B13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DE6DF39B-86B0-4E5E-B074-3E832FEB1B13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17072,7 +17104,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E2305AC-890F-448D-94DD-D55DBCD02906}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E2305AC-890F-448D-94DD-D55DBCD02906}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17840,17 +17872,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -17907,46 +17939,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="164" t="s">
+      <c r="C5" s="162" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="148"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="149" t="s">
+      <c r="C6" s="118" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="151"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="152" t="s">
+      <c r="C7" s="121" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -17965,19 +17997,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="157"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="155" t="s">
+      <c r="G9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="156"/>
-      <c r="I9" s="157"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -17986,19 +18018,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="128" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="35">
         <v>6</v>
       </c>
-      <c r="G10" s="162" t="s">
+      <c r="G10" s="163" t="s">
         <v>103</v>
       </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="126"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="108" t="s">
         <v>108</v>
       </c>
@@ -18007,19 +18039,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="163" t="s">
+      <c r="C11" s="164" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="35">
         <v>2</v>
       </c>
-      <c r="G11" s="162" t="s">
+      <c r="G11" s="163" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="125"/>
-      <c r="I11" s="126"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="108" t="s">
         <v>108</v>
       </c>
@@ -18028,19 +18060,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="163" t="s">
+      <c r="C12" s="164" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="35">
         <v>1</v>
       </c>
-      <c r="G12" s="162" t="s">
+      <c r="G12" s="163" t="s">
         <v>107</v>
       </c>
-      <c r="H12" s="125"/>
-      <c r="I12" s="126"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="108" t="s">
         <v>108</v>
       </c>
@@ -18050,67 +18082,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="139"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="126"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="126"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="126"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="129"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>9</v>
       </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="132"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -18130,57 +18162,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="133"/>
-      <c r="E19" s="134" t="s">
+      <c r="D19" s="144"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="136"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="117"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="118"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="122"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -18200,36 +18232,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -18268,17 +18300,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18335,46 +18367,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="164" t="s">
+      <c r="C5" s="162" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="148"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="149" t="s">
+      <c r="C6" s="118" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="151"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="152" t="s">
+      <c r="C7" s="121" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -18393,19 +18425,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="157"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="155" t="s">
+      <c r="G9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="156"/>
-      <c r="I9" s="157"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18414,19 +18446,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="128" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="35">
         <v>6</v>
       </c>
-      <c r="G10" s="162" t="s">
+      <c r="G10" s="163" t="s">
         <v>115</v>
       </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="126"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="108" t="s">
         <v>116</v>
       </c>
@@ -18435,19 +18467,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="163" t="s">
+      <c r="C11" s="164" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="162" t="s">
+      <c r="G11" s="163" t="s">
         <v>118</v>
       </c>
-      <c r="H11" s="125"/>
-      <c r="I11" s="126"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="108" t="s">
         <v>119</v>
       </c>
@@ -18456,13 +18488,13 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="126"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -18470,67 +18502,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="139"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="126"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="126"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="126"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="129"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>10</v>
       </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="132"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -18550,57 +18582,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="133"/>
-      <c r="E19" s="134" t="s">
+      <c r="D19" s="144"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="136"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="117"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="118"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="122"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -18620,36 +18652,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -18688,17 +18720,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18755,46 +18787,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="164" t="s">
+      <c r="C5" s="162" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="148"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="149" t="s">
+      <c r="C6" s="118" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="151"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="152" t="s">
+      <c r="C7" s="121" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -18813,19 +18845,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="157"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="155" t="s">
+      <c r="G9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="156"/>
-      <c r="I9" s="157"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18834,19 +18866,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="163" t="s">
+      <c r="C10" s="164" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="162" t="s">
+      <c r="G10" s="163" t="s">
         <v>126</v>
       </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="126"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="108" t="s">
         <v>127</v>
       </c>
@@ -18855,19 +18887,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="163" t="s">
+      <c r="C11" s="164" t="s">
         <v>128</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="124" t="s">
+      <c r="G11" s="137" t="s">
         <v>129</v>
       </c>
-      <c r="H11" s="125"/>
-      <c r="I11" s="126"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="108" t="s">
         <v>127</v>
       </c>
@@ -18876,19 +18908,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="163" t="s">
+      <c r="C12" s="164" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="35">
         <v>3</v>
       </c>
-      <c r="G12" s="162" t="s">
+      <c r="G12" s="163" t="s">
         <v>131</v>
       </c>
-      <c r="H12" s="125"/>
-      <c r="I12" s="126"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="108" t="s">
         <v>132</v>
       </c>
@@ -18898,67 +18930,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="139"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="126"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="126"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="126"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="129"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>11</v>
       </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="132"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -18978,57 +19010,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="133"/>
-      <c r="E19" s="134" t="s">
+      <c r="D19" s="144"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="136"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="117"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="118"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="122"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -19048,36 +19080,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -19096,7 +19128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -19116,17 +19148,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19183,46 +19215,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="164" t="s">
+      <c r="C5" s="162" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="148"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="149" t="s">
+      <c r="C6" s="118" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="151"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="152" t="s">
+      <c r="C7" s="121" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19241,19 +19273,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="157"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="155" t="s">
+      <c r="G9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="156"/>
-      <c r="I9" s="157"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19262,19 +19294,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="163" t="s">
+      <c r="C10" s="164" t="s">
         <v>138</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="35">
         <v>9</v>
       </c>
-      <c r="G10" s="162" t="s">
+      <c r="G10" s="163" t="s">
         <v>139</v>
       </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="126"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="108" t="s">
         <v>142</v>
       </c>
@@ -19283,19 +19315,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="163" t="s">
+      <c r="C11" s="164" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="35">
         <v>3</v>
       </c>
-      <c r="G11" s="162" t="s">
+      <c r="G11" s="163" t="s">
         <v>141</v>
       </c>
-      <c r="H11" s="125"/>
-      <c r="I11" s="126"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="108" t="s">
         <v>142</v>
       </c>
@@ -19304,13 +19336,13 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="126"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -19318,67 +19350,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="139"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="126"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="126"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="126"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="129"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="132"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19398,57 +19430,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="133"/>
-      <c r="E19" s="134" t="s">
+      <c r="D19" s="144"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="136"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="117"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="118"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="122"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -19468,36 +19500,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -19516,8 +19548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -19536,17 +19568,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19563,19 +19595,27 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="106" t="s">
+        <v>143</v>
+      </c>
       <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>144</v>
+      </c>
       <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="107" t="s">
+        <v>145</v>
+      </c>
       <c r="H3" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -19595,40 +19635,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="165"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="148"/>
+      <c r="C5" s="162" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="149"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="151"/>
+      <c r="C6" s="118" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="152"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
+      <c r="C7" s="121" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19647,19 +19693,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="157"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="155" t="s">
+      <c r="G9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="156"/>
-      <c r="I9" s="157"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19668,39 +19714,47 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="36"/>
+      <c r="C10" s="164" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="35">
+        <v>12</v>
+      </c>
+      <c r="G10" s="163" t="s">
+        <v>149</v>
+      </c>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="108" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="126"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="126"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -19708,67 +19762,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="139"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="126"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="126"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="126"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="129"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="132"/>
+        <v>12</v>
+      </c>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19788,57 +19842,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="133"/>
-      <c r="E19" s="134" t="s">
+      <c r="D19" s="144"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="136"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="117"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="118"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="122"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -19858,36 +19912,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -19926,17 +19980,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19986,39 +20040,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="165"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="148"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="149"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="151"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="152"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20037,19 +20091,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="157"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="155" t="s">
+      <c r="G9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="156"/>
-      <c r="I9" s="157"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20058,39 +20112,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="126"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="126"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="126"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20098,67 +20152,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="139"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="126"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="126"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="126"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="129"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="132"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20178,57 +20232,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="133"/>
-      <c r="E19" s="134" t="s">
+      <c r="D19" s="144"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="136"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="117"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="118"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="122"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -20248,36 +20302,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -20316,17 +20370,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20376,39 +20430,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="165"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="148"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="149"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="151"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="152"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20427,19 +20481,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="157"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="155" t="s">
+      <c r="G9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="156"/>
-      <c r="I9" s="157"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20448,39 +20502,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="126"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="126"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="126"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20488,67 +20542,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="139"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="126"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="126"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="126"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="129"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="132"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20568,57 +20622,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="133"/>
-      <c r="E19" s="134" t="s">
+      <c r="D19" s="144"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="136"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="117"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="118"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="122"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -20638,36 +20692,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -20706,17 +20760,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20766,39 +20820,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="165"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="148"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="149"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="151"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="152"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20817,19 +20871,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="157"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="155" t="s">
+      <c r="G9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="156"/>
-      <c r="I9" s="157"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20838,39 +20892,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="126"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="126"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="126"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20878,67 +20932,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="139"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="126"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="126"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="126"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="129"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="132"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20958,57 +21012,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="133"/>
-      <c r="E19" s="134" t="s">
+      <c r="D19" s="144"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="136"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="117"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="118"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="122"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -21028,36 +21082,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -21096,17 +21150,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -21156,39 +21210,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="165"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="148"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="149"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="151"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="152"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -21207,19 +21261,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="157"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="155" t="s">
+      <c r="G9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="156"/>
-      <c r="I9" s="157"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -21228,39 +21282,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="126"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="126"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="126"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -21268,67 +21322,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="139"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="126"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="126"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="126"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="129"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="132"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -21348,57 +21402,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="133"/>
-      <c r="E19" s="134" t="s">
+      <c r="D19" s="144"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="136"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="117"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="118"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="122"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -21418,36 +21472,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -21486,17 +21540,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -21546,39 +21600,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="165"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="148"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="149"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="151"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="152"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -21597,19 +21651,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="157"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="155" t="s">
+      <c r="G9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="156"/>
-      <c r="I9" s="157"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -21618,39 +21672,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="126"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="126"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="126"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -21658,67 +21712,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="139"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="126"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="126"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="126"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="129"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="132"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -21738,57 +21792,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="133"/>
-      <c r="E19" s="134" t="s">
+      <c r="D19" s="144"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="136"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="117"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="118"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="122"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -21808,36 +21862,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -22443,17 +22497,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -22510,46 +22564,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="146" t="s">
+      <c r="C5" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="148"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="149" t="s">
+      <c r="C6" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="151"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="152" t="s">
+      <c r="C7" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -22568,19 +22622,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="157"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="155" t="s">
+      <c r="G9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="156"/>
-      <c r="I9" s="157"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -22589,19 +22643,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="141" t="s">
+      <c r="C10" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="101">
         <v>0.5</v>
       </c>
-      <c r="G10" s="140" t="s">
+      <c r="G10" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="126"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="104" t="s">
         <v>52</v>
       </c>
@@ -22610,19 +22664,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="141" t="s">
+      <c r="C11" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="101">
         <v>1</v>
       </c>
-      <c r="G11" s="140" t="s">
+      <c r="G11" s="129" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="125"/>
-      <c r="I11" s="126"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="104" t="s">
         <v>52</v>
       </c>
@@ -22631,19 +22685,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="142" t="s">
+      <c r="C12" s="132" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="101">
         <v>4</v>
       </c>
-      <c r="G12" s="143" t="s">
+      <c r="G12" s="133" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="125"/>
-      <c r="I12" s="126"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="104" t="s">
         <v>52</v>
       </c>
@@ -22652,19 +22706,19 @@
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="137" t="s">
+      <c r="C13" s="134" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="138"/>
-      <c r="E13" s="139"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="101">
         <v>2</v>
       </c>
-      <c r="G13" s="140" t="s">
+      <c r="G13" s="129" t="s">
         <v>82</v>
       </c>
-      <c r="H13" s="125"/>
-      <c r="I13" s="126"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="104" t="s">
         <v>52</v>
       </c>
@@ -22673,55 +22727,55 @@
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="141"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="101"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="126"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="104"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="101"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="126"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="101"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="129"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="105">
         <f>SUM(F10:F16)</f>
         <v>7.5</v>
       </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="132"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -22741,57 +22795,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="133"/>
-      <c r="E19" s="134" t="s">
+      <c r="D19" s="144"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="136"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="117"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="118"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="122"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -22811,36 +22865,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -22879,17 +22933,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -22946,46 +23000,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="146" t="s">
+      <c r="C5" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="148"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="149" t="s">
+      <c r="C6" s="118" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="151"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="152" t="s">
+      <c r="C7" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23004,19 +23058,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="157"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="155" t="s">
+      <c r="G9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="156"/>
-      <c r="I9" s="157"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23025,19 +23079,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="141" t="s">
+      <c r="C10" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="35">
         <v>2</v>
       </c>
-      <c r="G10" s="140" t="s">
+      <c r="G10" s="129" t="s">
         <v>84</v>
       </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="126"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="104" t="s">
         <v>52</v>
       </c>
@@ -23046,19 +23100,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="142" t="s">
+      <c r="C11" s="132" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="35">
         <v>6</v>
       </c>
-      <c r="G11" s="140" t="s">
+      <c r="G11" s="129" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="125"/>
-      <c r="I11" s="126"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="104" t="s">
         <v>52</v>
       </c>
@@ -23067,19 +23121,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="141" t="s">
+      <c r="C12" s="127" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="35">
         <v>3</v>
       </c>
-      <c r="G12" s="143" t="s">
+      <c r="G12" s="133" t="s">
         <v>87</v>
       </c>
-      <c r="H12" s="125"/>
-      <c r="I12" s="126"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="104" t="s">
         <v>52</v>
       </c>
@@ -23089,67 +23143,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="139"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="126"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="126"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="126"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="129"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>11</v>
       </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="132"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23169,57 +23223,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="133"/>
-      <c r="E19" s="134" t="s">
+      <c r="D19" s="144"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="136"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="117"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="118"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="122"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -23239,12 +23293,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="G16:I16"/>
@@ -23253,22 +23317,12 @@
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -23307,17 +23361,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23377,43 +23431,43 @@
       <c r="C5" s="159" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="148"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="149" t="s">
+      <c r="C6" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="151"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="152" t="s">
+      <c r="C7" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23432,19 +23486,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="157"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="155" t="s">
+      <c r="G9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="156"/>
-      <c r="I9" s="157"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23453,19 +23507,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="141" t="s">
+      <c r="C10" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="140" t="s">
+      <c r="G10" s="129" t="s">
         <v>89</v>
       </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="126"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="104" t="s">
         <v>52</v>
       </c>
@@ -23474,19 +23528,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="142" t="s">
+      <c r="C11" s="132" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="35">
         <v>6</v>
       </c>
-      <c r="G11" s="143" t="s">
+      <c r="G11" s="133" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="125"/>
-      <c r="I11" s="126"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="104" t="s">
         <v>52</v>
       </c>
@@ -23495,19 +23549,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="141" t="s">
+      <c r="C12" s="127" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="35">
         <v>2</v>
       </c>
-      <c r="G12" s="143" t="s">
+      <c r="G12" s="133" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="125"/>
-      <c r="I12" s="126"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="104" t="s">
         <v>52</v>
       </c>
@@ -23517,67 +23571,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="139"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="126"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="126"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="126"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="129"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="132"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23597,57 +23651,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="133"/>
-      <c r="E19" s="134" t="s">
+      <c r="D19" s="144"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="136"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="117"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="118"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="122"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -23667,36 +23721,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -23735,17 +23789,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23802,46 +23856,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="146" t="s">
+      <c r="C5" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="148"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="149" t="s">
+      <c r="C6" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="151"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="152" t="s">
+      <c r="C7" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23860,19 +23914,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="157"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="155" t="s">
+      <c r="G9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="156"/>
-      <c r="I9" s="157"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23881,19 +23935,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="141" t="s">
+      <c r="C10" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="140" t="s">
+      <c r="G10" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="126"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="104" t="s">
         <v>52</v>
       </c>
@@ -23902,19 +23956,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="141" t="s">
+      <c r="C11" s="127" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="140" t="s">
+      <c r="G11" s="129" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="125"/>
-      <c r="I11" s="126"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="104" t="s">
         <v>52</v>
       </c>
@@ -23923,19 +23977,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="141" t="s">
+      <c r="C12" s="127" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="35">
         <v>4</v>
       </c>
-      <c r="G12" s="140" t="s">
+      <c r="G12" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="125"/>
-      <c r="I12" s="126"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="104" t="s">
         <v>52</v>
       </c>
@@ -23945,67 +23999,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="139"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="126"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="126"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="126"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="129"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="132"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -24025,18 +24079,18 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="133"/>
-      <c r="E19" s="134" t="s">
+      <c r="D19" s="144"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="136"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
@@ -24045,41 +24099,41 @@
       <c r="C20" s="160" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="114"/>
+      <c r="D20" s="149"/>
       <c r="E20" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="117"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="118"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="122"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -24099,36 +24153,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -24167,17 +24221,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -24234,46 +24288,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="146" t="s">
+      <c r="C5" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="148"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="149" t="s">
+      <c r="C6" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="151"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="152" t="s">
+      <c r="C7" s="121" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -24292,19 +24346,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="157"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="155" t="s">
+      <c r="G9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="156"/>
-      <c r="I9" s="157"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -24313,19 +24367,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="141" t="s">
+      <c r="C10" s="127" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="35">
         <v>6</v>
       </c>
-      <c r="G10" s="140" t="s">
+      <c r="G10" s="129" t="s">
         <v>94</v>
       </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="126"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="104" t="s">
         <v>52</v>
       </c>
@@ -24334,19 +24388,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="141" t="s">
+      <c r="C11" s="127" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="140" t="s">
+      <c r="G11" s="129" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="125"/>
-      <c r="I11" s="126"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="104" t="s">
         <v>52</v>
       </c>
@@ -24355,13 +24409,13 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="142"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="143"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="126"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="104"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -24369,67 +24423,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="139"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="126"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="126"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="126"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="129"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>10</v>
       </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="132"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -24449,18 +24503,18 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="133"/>
-      <c r="E19" s="134" t="s">
+      <c r="D19" s="144"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="136"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
@@ -24469,41 +24523,41 @@
       <c r="C20" s="160" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="114"/>
+      <c r="D20" s="149"/>
       <c r="E20" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="117"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="118"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="122"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -24523,36 +24577,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -24591,17 +24645,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -24658,46 +24712,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="146" t="s">
+      <c r="C5" s="115" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="148"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="149" t="s">
+      <c r="C6" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="151"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="152" t="s">
+      <c r="C7" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -24716,19 +24770,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="157"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="155" t="s">
+      <c r="G9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="156"/>
-      <c r="I9" s="157"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -24737,19 +24791,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="141" t="s">
+      <c r="C10" s="127" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="140" t="s">
+      <c r="G10" s="129" t="s">
         <v>97</v>
       </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="126"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="104" t="s">
         <v>52</v>
       </c>
@@ -24758,19 +24812,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="141" t="s">
+      <c r="C11" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="35">
         <v>2</v>
       </c>
-      <c r="G11" s="140" t="s">
+      <c r="G11" s="129" t="s">
         <v>75</v>
       </c>
-      <c r="H11" s="125"/>
-      <c r="I11" s="126"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="104" t="s">
         <v>52</v>
       </c>
@@ -24779,19 +24833,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="142" t="s">
+      <c r="C12" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="35">
         <v>6</v>
       </c>
-      <c r="G12" s="143" t="s">
+      <c r="G12" s="133" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="125"/>
-      <c r="I12" s="126"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="104" t="s">
         <v>52</v>
       </c>
@@ -24800,19 +24854,19 @@
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="137" t="s">
+      <c r="C13" s="134" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="138"/>
-      <c r="E13" s="139"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35">
         <v>2</v>
       </c>
-      <c r="G13" s="140" t="s">
+      <c r="G13" s="129" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="125"/>
-      <c r="I13" s="126"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="104" t="s">
         <v>52</v>
       </c>
@@ -24821,55 +24875,55 @@
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="126"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="126"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="129"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>14</v>
       </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="132"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -24889,57 +24943,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="133"/>
-      <c r="E19" s="134" t="s">
+      <c r="D19" s="144"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="136"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="117"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="118"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="122"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -24959,36 +25013,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">

--- a/学生提交材料/个人日报/个人日报_侯永康.xlsx
+++ b/学生提交材料/个人日报/个人日报_侯永康.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176" firstSheet="2" activeTab="13"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176" firstSheet="2" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="162">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1204,6 +1204,50 @@
   </si>
   <si>
     <t>观看老师视频，小组讨论得出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯永康</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.01.16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒店管理系统</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目代码编写</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.01.14-2021.01.16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习qchart相关知识</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上课学习加课后复习</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目代码编写</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善项目功能和代码</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2691,6 +2735,116 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2741,116 +2895,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2865,16 +2909,16 @@
     <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2943,7 +2987,7 @@
         <xdr:cNvPr id="3080" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000080C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000080C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2964,7 +3008,7 @@
           <xdr:cNvPr id="3081" name="Freeform 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000090C0000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000090C0000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3119,7 +3163,7 @@
           <xdr:cNvPr id="3082" name="Freeform 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A0C0000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A0C0000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4511,7 +4555,7 @@
           <xdr:cNvPr id="3083" name="Freeform 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B0C0000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B0C0000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5326,7 +5370,7 @@
           <xdr:cNvPr id="3084" name="Freeform 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C0C0000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C0C0000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6885,7 +6929,7 @@
           <xdr:cNvPr id="3085" name="Freeform 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D0C0000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D0C0000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8430,7 +8474,7 @@
           <xdr:cNvPr id="3086" name="Freeform 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E0C0000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E0C0000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9431,7 +9475,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64C6AEC7-D6DB-421D-AFCC-5032A29228A3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64C6AEC7-D6DB-421D-AFCC-5032A29228A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9510,7 +9554,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7924CB87-139A-4151-A923-E6C34B3A4A62}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7924CB87-139A-4151-A923-E6C34B3A4A62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9589,7 +9633,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4CDC39A9-9223-4FB4-8BD5-51889B5F93A9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CDC39A9-9223-4FB4-8BD5-51889B5F93A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9668,7 +9712,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{52344C10-06A6-46D3-8B6D-CB9BA5F62B0B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52344C10-06A6-46D3-8B6D-CB9BA5F62B0B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9747,7 +9791,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D24B0C4D-D632-48F5-B58A-E106EA2FEA90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D24B0C4D-D632-48F5-B58A-E106EA2FEA90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9826,7 +9870,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9DC785F3-D96F-4B7B-B304-6BA696CAA6C9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DC785F3-D96F-4B7B-B304-6BA696CAA6C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9905,7 +9949,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{65D7A1B8-46FC-4E0C-95DF-793A44A1606F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65D7A1B8-46FC-4E0C-95DF-793A44A1606F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9984,7 +10028,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29D9835E-C84B-4C51-B84B-27F6EA03D786}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29D9835E-C84B-4C51-B84B-27F6EA03D786}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10063,7 +10107,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41BDA274-19BF-48F1-B9C2-5C5AF330D1A8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41BDA274-19BF-48F1-B9C2-5C5AF330D1A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10142,7 +10186,7 @@
         <xdr:cNvPr id="4104" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008100000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008100000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10163,7 +10207,7 @@
           <xdr:cNvPr id="4105" name="Freeform 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009100000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009100000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10318,7 +10362,7 @@
           <xdr:cNvPr id="4106" name="Freeform 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A100000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A100000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11710,7 +11754,7 @@
           <xdr:cNvPr id="4107" name="Freeform 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B100000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B100000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12525,7 +12569,7 @@
           <xdr:cNvPr id="4108" name="Freeform 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C100000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C100000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14084,7 +14128,7 @@
           <xdr:cNvPr id="4109" name="Freeform 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000D100000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D100000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15629,7 +15673,7 @@
           <xdr:cNvPr id="4110" name="Freeform 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000E100000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E100000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16630,7 +16674,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{364415B3-9FA3-46FD-B2EE-2D1E82F564BA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{364415B3-9FA3-46FD-B2EE-2D1E82F564BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16709,7 +16753,7 @@
         <xdr:cNvPr id="2050" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16788,7 +16832,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E7A8128-D999-4C13-91B0-F974226B4F14}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E7A8128-D999-4C13-91B0-F974226B4F14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16867,7 +16911,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0ED7B0B0-AF00-4754-A9B1-F6266D2BEA32}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ED7B0B0-AF00-4754-A9B1-F6266D2BEA32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16946,7 +16990,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B105078-058B-4F7F-8B52-188E14B44B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B105078-058B-4F7F-8B52-188E14B44B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17025,7 +17069,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DE6DF39B-86B0-4E5E-B074-3E832FEB1B13}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE6DF39B-86B0-4E5E-B074-3E832FEB1B13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17104,7 +17148,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E2305AC-890F-448D-94DD-D55DBCD02906}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E2305AC-890F-448D-94DD-D55DBCD02906}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17872,17 +17916,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -17939,46 +17983,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="162" t="s">
+      <c r="C5" s="164" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="149" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="152" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -17997,19 +18041,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18018,19 +18062,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="128" t="s">
+      <c r="C10" s="123" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="35">
         <v>6</v>
       </c>
-      <c r="G10" s="163" t="s">
+      <c r="G10" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="108" t="s">
         <v>108</v>
       </c>
@@ -18039,19 +18083,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="164" t="s">
+      <c r="C11" s="163" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="35">
         <v>2</v>
       </c>
-      <c r="G11" s="163" t="s">
+      <c r="G11" s="162" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="108" t="s">
         <v>108</v>
       </c>
@@ -18060,19 +18104,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="164" t="s">
+      <c r="C12" s="163" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="35">
         <v>1</v>
       </c>
-      <c r="G12" s="163" t="s">
+      <c r="G12" s="162" t="s">
         <v>107</v>
       </c>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="108" t="s">
         <v>108</v>
       </c>
@@ -18082,67 +18126,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>9</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -18162,57 +18206,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -18232,36 +18276,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -18300,17 +18344,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18367,46 +18411,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="162" t="s">
+      <c r="C5" s="164" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="149" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="152" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -18425,19 +18469,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18446,19 +18490,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="128" t="s">
+      <c r="C10" s="123" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="35">
         <v>6</v>
       </c>
-      <c r="G10" s="163" t="s">
+      <c r="G10" s="162" t="s">
         <v>115</v>
       </c>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="108" t="s">
         <v>116</v>
       </c>
@@ -18467,19 +18511,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="164" t="s">
+      <c r="C11" s="163" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="163" t="s">
+      <c r="G11" s="162" t="s">
         <v>118</v>
       </c>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="108" t="s">
         <v>119</v>
       </c>
@@ -18488,13 +18532,13 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -18502,67 +18546,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>10</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -18582,57 +18626,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -18652,36 +18696,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -18720,17 +18764,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18787,46 +18831,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="162" t="s">
+      <c r="C5" s="164" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="149" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="152" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -18845,19 +18889,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18866,19 +18910,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="164" t="s">
+      <c r="C10" s="163" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="163" t="s">
+      <c r="G10" s="162" t="s">
         <v>126</v>
       </c>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="108" t="s">
         <v>127</v>
       </c>
@@ -18887,19 +18931,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="164" t="s">
+      <c r="C11" s="163" t="s">
         <v>128</v>
       </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="137" t="s">
+      <c r="G11" s="124" t="s">
         <v>129</v>
       </c>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="108" t="s">
         <v>127</v>
       </c>
@@ -18908,19 +18952,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="164" t="s">
+      <c r="C12" s="163" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="35">
         <v>3</v>
       </c>
-      <c r="G12" s="163" t="s">
+      <c r="G12" s="162" t="s">
         <v>131</v>
       </c>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="108" t="s">
         <v>132</v>
       </c>
@@ -18930,67 +18974,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>11</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19010,57 +19054,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -19080,36 +19124,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -19148,17 +19192,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19215,46 +19259,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="162" t="s">
+      <c r="C5" s="164" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="149" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="152" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19273,19 +19317,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19294,19 +19338,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="164" t="s">
+      <c r="C10" s="163" t="s">
         <v>138</v>
       </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="35">
         <v>9</v>
       </c>
-      <c r="G10" s="163" t="s">
+      <c r="G10" s="162" t="s">
         <v>139</v>
       </c>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="108" t="s">
         <v>142</v>
       </c>
@@ -19315,19 +19359,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="164" t="s">
+      <c r="C11" s="163" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="35">
         <v>3</v>
       </c>
-      <c r="G11" s="163" t="s">
+      <c r="G11" s="162" t="s">
         <v>141</v>
       </c>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="108" t="s">
         <v>142</v>
       </c>
@@ -19336,13 +19380,13 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -19350,67 +19394,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19430,57 +19474,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -19500,36 +19544,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -19548,7 +19592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -19568,17 +19612,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19635,46 +19679,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="162" t="s">
+      <c r="C5" s="164" t="s">
         <v>146</v>
       </c>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="149" t="s">
         <v>147</v>
       </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="152" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19693,19 +19737,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19714,19 +19758,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="164" t="s">
+      <c r="C10" s="163" t="s">
         <v>148</v>
       </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="35">
         <v>12</v>
       </c>
-      <c r="G10" s="163" t="s">
+      <c r="G10" s="162" t="s">
         <v>149</v>
       </c>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="108" t="s">
         <v>150</v>
       </c>
@@ -19735,26 +19779,26 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -19762,67 +19806,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19842,57 +19886,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -19912,36 +19956,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -19960,8 +20004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -19980,17 +20024,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20007,19 +20051,27 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="106" t="s">
+        <v>151</v>
+      </c>
       <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="107" t="s">
+        <v>153</v>
+      </c>
       <c r="H3" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20039,40 +20091,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="165"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="C5" s="164" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="C6" s="149" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="C7" s="152" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20091,19 +20149,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20112,39 +20170,55 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="36"/>
+      <c r="C10" s="163" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="35">
+        <v>4</v>
+      </c>
+      <c r="G10" s="162" t="s">
+        <v>157</v>
+      </c>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="108" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="36"/>
+      <c r="C11" s="163" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="35">
+        <v>8</v>
+      </c>
+      <c r="G11" s="162" t="s">
+        <v>160</v>
+      </c>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="108" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20152,67 +20226,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
+        <v>12</v>
+      </c>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20232,57 +20306,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -20302,36 +20376,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -20370,17 +20444,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20430,39 +20504,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="165"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20481,19 +20555,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20502,39 +20576,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20542,67 +20616,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20622,57 +20696,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -20692,36 +20766,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -20760,17 +20834,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20820,39 +20894,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="165"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20871,19 +20945,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20892,39 +20966,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20932,67 +21006,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -21012,57 +21086,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -21082,36 +21156,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -21150,17 +21224,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -21210,39 +21284,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="165"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -21261,19 +21335,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -21282,39 +21356,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -21322,67 +21396,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -21402,57 +21476,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -21472,36 +21546,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -21540,17 +21614,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -21600,39 +21674,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="165"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -21651,19 +21725,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -21672,39 +21746,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -21712,67 +21786,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -21792,57 +21866,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -21862,36 +21936,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -22497,17 +22571,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -22564,46 +22638,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="115" t="s">
+      <c r="C5" s="146" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="149" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="152" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -22622,19 +22696,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -22643,19 +22717,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="127" t="s">
+      <c r="C10" s="141" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="101">
         <v>0.5</v>
       </c>
-      <c r="G10" s="129" t="s">
+      <c r="G10" s="140" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="104" t="s">
         <v>52</v>
       </c>
@@ -22664,19 +22738,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="101">
         <v>1</v>
       </c>
-      <c r="G11" s="129" t="s">
+      <c r="G11" s="140" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="104" t="s">
         <v>52</v>
       </c>
@@ -22685,19 +22759,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="132" t="s">
+      <c r="C12" s="142" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="101">
         <v>4</v>
       </c>
-      <c r="G12" s="133" t="s">
+      <c r="G12" s="143" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="104" t="s">
         <v>52</v>
       </c>
@@ -22706,19 +22780,19 @@
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="134" t="s">
+      <c r="C13" s="137" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="101">
         <v>2</v>
       </c>
-      <c r="G13" s="129" t="s">
+      <c r="G13" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="104" t="s">
         <v>52</v>
       </c>
@@ -22727,55 +22801,55 @@
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="127"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="141"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="101"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="104"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="101"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="101"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="105">
         <f>SUM(F10:F16)</f>
         <v>7.5</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -22795,57 +22869,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -22865,36 +22939,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -22933,17 +23007,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23000,46 +23074,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="115" t="s">
+      <c r="C5" s="146" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="149" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="152" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23058,19 +23132,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23079,19 +23153,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="127" t="s">
+      <c r="C10" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="35">
         <v>2</v>
       </c>
-      <c r="G10" s="129" t="s">
+      <c r="G10" s="140" t="s">
         <v>84</v>
       </c>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="104" t="s">
         <v>52</v>
       </c>
@@ -23100,19 +23174,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="132" t="s">
+      <c r="C11" s="142" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="35">
         <v>6</v>
       </c>
-      <c r="G11" s="129" t="s">
+      <c r="G11" s="140" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="104" t="s">
         <v>52</v>
       </c>
@@ -23121,19 +23195,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="127" t="s">
+      <c r="C12" s="141" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="35">
         <v>3</v>
       </c>
-      <c r="G12" s="133" t="s">
+      <c r="G12" s="143" t="s">
         <v>87</v>
       </c>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="104" t="s">
         <v>52</v>
       </c>
@@ -23143,67 +23217,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>11</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23223,57 +23297,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -23293,6 +23367,28 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C22:D22"/>
@@ -23301,28 +23397,6 @@
     <mergeCell ref="E19:J19"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -23361,17 +23435,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23431,43 +23505,43 @@
       <c r="C5" s="159" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="149" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="152" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23486,19 +23560,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23507,19 +23581,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="127" t="s">
+      <c r="C10" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="129" t="s">
+      <c r="G10" s="140" t="s">
         <v>89</v>
       </c>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="104" t="s">
         <v>52</v>
       </c>
@@ -23528,19 +23602,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="132" t="s">
+      <c r="C11" s="142" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="35">
         <v>6</v>
       </c>
-      <c r="G11" s="133" t="s">
+      <c r="G11" s="143" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="104" t="s">
         <v>52</v>
       </c>
@@ -23549,19 +23623,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="127" t="s">
+      <c r="C12" s="141" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="35">
         <v>2</v>
       </c>
-      <c r="G12" s="133" t="s">
+      <c r="G12" s="143" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="104" t="s">
         <v>52</v>
       </c>
@@ -23571,67 +23645,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23651,57 +23725,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -23721,36 +23795,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -23789,17 +23863,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23856,46 +23930,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="115" t="s">
+      <c r="C5" s="146" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="149" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="152" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23914,19 +23988,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23935,19 +24009,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="127" t="s">
+      <c r="C10" s="141" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="129" t="s">
+      <c r="G10" s="140" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="104" t="s">
         <v>52</v>
       </c>
@@ -23956,19 +24030,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="141" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="129" t="s">
+      <c r="G11" s="140" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="104" t="s">
         <v>52</v>
       </c>
@@ -23977,19 +24051,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="127" t="s">
+      <c r="C12" s="141" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="35">
         <v>4</v>
       </c>
-      <c r="G12" s="129" t="s">
+      <c r="G12" s="140" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="104" t="s">
         <v>52</v>
       </c>
@@ -23999,67 +24073,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -24079,18 +24153,18 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
@@ -24099,41 +24173,41 @@
       <c r="C20" s="160" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="149"/>
+      <c r="D20" s="114"/>
       <c r="E20" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -24153,36 +24227,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -24221,17 +24295,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -24288,46 +24362,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="115" t="s">
+      <c r="C5" s="146" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="149" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="152" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -24346,19 +24420,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -24367,19 +24441,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="127" t="s">
+      <c r="C10" s="141" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="35">
         <v>6</v>
       </c>
-      <c r="G10" s="129" t="s">
+      <c r="G10" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="104" t="s">
         <v>52</v>
       </c>
@@ -24388,19 +24462,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="141" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="129" t="s">
+      <c r="G11" s="140" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="104" t="s">
         <v>52</v>
       </c>
@@ -24409,13 +24483,13 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="132"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="C12" s="142"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="G12" s="143"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="104"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -24423,67 +24497,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>10</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -24503,18 +24577,18 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
@@ -24523,41 +24597,41 @@
       <c r="C20" s="160" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="149"/>
+      <c r="D20" s="114"/>
       <c r="E20" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -24577,36 +24651,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -24645,17 +24719,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -24712,46 +24786,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="115" t="s">
+      <c r="C5" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="149" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="152" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -24770,19 +24844,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -24791,19 +24865,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="127" t="s">
+      <c r="C10" s="141" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="129" t="s">
+      <c r="G10" s="140" t="s">
         <v>97</v>
       </c>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="104" t="s">
         <v>52</v>
       </c>
@@ -24812,19 +24886,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="141" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="35">
         <v>2</v>
       </c>
-      <c r="G11" s="129" t="s">
+      <c r="G11" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="104" t="s">
         <v>52</v>
       </c>
@@ -24833,19 +24907,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="132" t="s">
+      <c r="C12" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="35">
         <v>6</v>
       </c>
-      <c r="G12" s="133" t="s">
+      <c r="G12" s="143" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="104" t="s">
         <v>52</v>
       </c>
@@ -24854,19 +24928,19 @@
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="134" t="s">
+      <c r="C13" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="35">
         <v>2</v>
       </c>
-      <c r="G13" s="129" t="s">
+      <c r="G13" s="140" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="104" t="s">
         <v>52</v>
       </c>
@@ -24875,55 +24949,55 @@
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>14</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -24943,57 +25017,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -25013,36 +25087,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">

--- a/学生提交材料/个人日报/个人日报_侯永康.xlsx
+++ b/学生提交材料/个人日报/个人日报_侯永康.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176" firstSheet="2" activeTab="14"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176" firstSheet="2" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,6 @@
     <sheet name="1.17" sheetId="19" r:id="rId16"/>
     <sheet name="1.18" sheetId="20" r:id="rId17"/>
     <sheet name="1.19" sheetId="21" r:id="rId18"/>
-    <sheet name="1.20" sheetId="22" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="父活动类型名">#REF!</definedName>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="172">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1248,6 +1247,46 @@
   </si>
   <si>
     <t>完善项目功能和代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯永康</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.01.17</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒店管理系统</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计报告，答辩报告的撰写</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码修改与完善</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理细节，完善代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计报告，答辩报告的撰写</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据世纪情况撰写报告</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2735,116 +2774,6 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2895,6 +2824,116 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2909,16 +2948,16 @@
     <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2987,7 +3026,7 @@
         <xdr:cNvPr id="3080" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000080C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000080C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3008,7 +3047,7 @@
           <xdr:cNvPr id="3081" name="Freeform 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000090C0000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000090C0000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3163,7 +3202,7 @@
           <xdr:cNvPr id="3082" name="Freeform 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A0C0000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A0C0000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4555,7 +4594,7 @@
           <xdr:cNvPr id="3083" name="Freeform 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B0C0000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B0C0000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5370,7 +5409,7 @@
           <xdr:cNvPr id="3084" name="Freeform 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C0C0000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C0C0000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6929,7 +6968,7 @@
           <xdr:cNvPr id="3085" name="Freeform 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D0C0000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D0C0000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8474,7 +8513,7 @@
           <xdr:cNvPr id="3086" name="Freeform 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E0C0000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E0C0000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9475,7 +9514,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64C6AEC7-D6DB-421D-AFCC-5032A29228A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64C6AEC7-D6DB-421D-AFCC-5032A29228A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9554,7 +9593,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7924CB87-139A-4151-A923-E6C34B3A4A62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7924CB87-139A-4151-A923-E6C34B3A4A62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9633,7 +9672,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CDC39A9-9223-4FB4-8BD5-51889B5F93A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4CDC39A9-9223-4FB4-8BD5-51889B5F93A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9712,7 +9751,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52344C10-06A6-46D3-8B6D-CB9BA5F62B0B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{52344C10-06A6-46D3-8B6D-CB9BA5F62B0B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9791,7 +9830,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D24B0C4D-D632-48F5-B58A-E106EA2FEA90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D24B0C4D-D632-48F5-B58A-E106EA2FEA90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9870,7 +9909,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DC785F3-D96F-4B7B-B304-6BA696CAA6C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9DC785F3-D96F-4B7B-B304-6BA696CAA6C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9949,7 +9988,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65D7A1B8-46FC-4E0C-95DF-793A44A1606F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{65D7A1B8-46FC-4E0C-95DF-793A44A1606F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10028,86 +10067,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29D9835E-C84B-4C51-B84B-27F6EA03D786}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8086725" y="76200"/>
-          <a:ext cx="1828800" cy="447675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>523875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="b">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41BDA274-19BF-48F1-B9C2-5C5AF330D1A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29D9835E-C84B-4C51-B84B-27F6EA03D786}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10186,7 +10146,7 @@
         <xdr:cNvPr id="4104" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008100000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008100000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10207,7 +10167,7 @@
           <xdr:cNvPr id="4105" name="Freeform 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009100000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009100000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10362,7 +10322,7 @@
           <xdr:cNvPr id="4106" name="Freeform 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A100000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A100000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11754,7 +11714,7 @@
           <xdr:cNvPr id="4107" name="Freeform 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B100000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B100000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12569,7 +12529,7 @@
           <xdr:cNvPr id="4108" name="Freeform 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C100000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C100000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14128,7 +14088,7 @@
           <xdr:cNvPr id="4109" name="Freeform 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D100000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000D100000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15673,7 +15633,7 @@
           <xdr:cNvPr id="4110" name="Freeform 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E100000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000E100000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16674,7 +16634,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{364415B3-9FA3-46FD-B2EE-2D1E82F564BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{364415B3-9FA3-46FD-B2EE-2D1E82F564BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16753,7 +16713,7 @@
         <xdr:cNvPr id="2050" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16832,7 +16792,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E7A8128-D999-4C13-91B0-F974226B4F14}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E7A8128-D999-4C13-91B0-F974226B4F14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16911,7 +16871,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ED7B0B0-AF00-4754-A9B1-F6266D2BEA32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0ED7B0B0-AF00-4754-A9B1-F6266D2BEA32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16990,7 +16950,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B105078-058B-4F7F-8B52-188E14B44B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B105078-058B-4F7F-8B52-188E14B44B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17069,7 +17029,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE6DF39B-86B0-4E5E-B074-3E832FEB1B13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DE6DF39B-86B0-4E5E-B074-3E832FEB1B13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17148,7 +17108,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E2305AC-890F-448D-94DD-D55DBCD02906}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E2305AC-890F-448D-94DD-D55DBCD02906}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17916,17 +17876,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -17983,46 +17943,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="164" t="s">
+      <c r="C5" s="162" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="148"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="149" t="s">
+      <c r="C6" s="118" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="151"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="152" t="s">
+      <c r="C7" s="121" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -18041,19 +18001,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="157"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="155" t="s">
+      <c r="G9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="156"/>
-      <c r="I9" s="157"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18062,19 +18022,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="128" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="35">
         <v>6</v>
       </c>
-      <c r="G10" s="162" t="s">
+      <c r="G10" s="163" t="s">
         <v>103</v>
       </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="126"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="108" t="s">
         <v>108</v>
       </c>
@@ -18083,19 +18043,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="163" t="s">
+      <c r="C11" s="164" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="35">
         <v>2</v>
       </c>
-      <c r="G11" s="162" t="s">
+      <c r="G11" s="163" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="125"/>
-      <c r="I11" s="126"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="108" t="s">
         <v>108</v>
       </c>
@@ -18104,19 +18064,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="163" t="s">
+      <c r="C12" s="164" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="35">
         <v>1</v>
       </c>
-      <c r="G12" s="162" t="s">
+      <c r="G12" s="163" t="s">
         <v>107</v>
       </c>
-      <c r="H12" s="125"/>
-      <c r="I12" s="126"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="108" t="s">
         <v>108</v>
       </c>
@@ -18126,67 +18086,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="139"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="126"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="126"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="126"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="129"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>9</v>
       </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="132"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -18206,57 +18166,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="133"/>
-      <c r="E19" s="134" t="s">
+      <c r="D19" s="144"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="136"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="117"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="118"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="122"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -18276,36 +18236,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -18344,17 +18304,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18411,46 +18371,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="164" t="s">
+      <c r="C5" s="162" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="148"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="149" t="s">
+      <c r="C6" s="118" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="151"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="152" t="s">
+      <c r="C7" s="121" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -18469,19 +18429,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="157"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="155" t="s">
+      <c r="G9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="156"/>
-      <c r="I9" s="157"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18490,19 +18450,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="128" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="35">
         <v>6</v>
       </c>
-      <c r="G10" s="162" t="s">
+      <c r="G10" s="163" t="s">
         <v>115</v>
       </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="126"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="108" t="s">
         <v>116</v>
       </c>
@@ -18511,19 +18471,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="163" t="s">
+      <c r="C11" s="164" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="162" t="s">
+      <c r="G11" s="163" t="s">
         <v>118</v>
       </c>
-      <c r="H11" s="125"/>
-      <c r="I11" s="126"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="108" t="s">
         <v>119</v>
       </c>
@@ -18532,13 +18492,13 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="126"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -18546,67 +18506,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="139"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="126"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="126"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="126"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="129"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>10</v>
       </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="132"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -18626,57 +18586,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="133"/>
-      <c r="E19" s="134" t="s">
+      <c r="D19" s="144"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="136"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="117"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="118"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="122"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -18696,36 +18656,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -18764,17 +18724,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18831,46 +18791,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="164" t="s">
+      <c r="C5" s="162" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="148"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="149" t="s">
+      <c r="C6" s="118" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="151"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="152" t="s">
+      <c r="C7" s="121" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -18889,19 +18849,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="157"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="155" t="s">
+      <c r="G9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="156"/>
-      <c r="I9" s="157"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18910,19 +18870,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="163" t="s">
+      <c r="C10" s="164" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="162" t="s">
+      <c r="G10" s="163" t="s">
         <v>126</v>
       </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="126"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="108" t="s">
         <v>127</v>
       </c>
@@ -18931,19 +18891,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="163" t="s">
+      <c r="C11" s="164" t="s">
         <v>128</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="124" t="s">
+      <c r="G11" s="137" t="s">
         <v>129</v>
       </c>
-      <c r="H11" s="125"/>
-      <c r="I11" s="126"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="108" t="s">
         <v>127</v>
       </c>
@@ -18952,19 +18912,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="163" t="s">
+      <c r="C12" s="164" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="35">
         <v>3</v>
       </c>
-      <c r="G12" s="162" t="s">
+      <c r="G12" s="163" t="s">
         <v>131</v>
       </c>
-      <c r="H12" s="125"/>
-      <c r="I12" s="126"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="108" t="s">
         <v>132</v>
       </c>
@@ -18974,67 +18934,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="139"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="126"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="126"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="126"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="129"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>11</v>
       </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="132"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19054,57 +19014,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="133"/>
-      <c r="E19" s="134" t="s">
+      <c r="D19" s="144"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="136"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="117"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="118"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="122"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -19124,36 +19084,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -19192,17 +19152,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19259,46 +19219,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="164" t="s">
+      <c r="C5" s="162" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="148"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="149" t="s">
+      <c r="C6" s="118" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="151"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="152" t="s">
+      <c r="C7" s="121" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19317,19 +19277,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="157"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="155" t="s">
+      <c r="G9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="156"/>
-      <c r="I9" s="157"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19338,19 +19298,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="163" t="s">
+      <c r="C10" s="164" t="s">
         <v>138</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="35">
         <v>9</v>
       </c>
-      <c r="G10" s="162" t="s">
+      <c r="G10" s="163" t="s">
         <v>139</v>
       </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="126"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="108" t="s">
         <v>142</v>
       </c>
@@ -19359,19 +19319,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="163" t="s">
+      <c r="C11" s="164" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="35">
         <v>3</v>
       </c>
-      <c r="G11" s="162" t="s">
+      <c r="G11" s="163" t="s">
         <v>141</v>
       </c>
-      <c r="H11" s="125"/>
-      <c r="I11" s="126"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="108" t="s">
         <v>142</v>
       </c>
@@ -19380,13 +19340,13 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="126"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -19394,67 +19354,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="139"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="126"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="126"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="126"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="129"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="132"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19474,57 +19434,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="133"/>
-      <c r="E19" s="134" t="s">
+      <c r="D19" s="144"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="136"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="117"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="118"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="122"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -19544,36 +19504,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -19612,17 +19572,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19679,46 +19639,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="164" t="s">
+      <c r="C5" s="162" t="s">
         <v>146</v>
       </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="148"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="149" t="s">
+      <c r="C6" s="118" t="s">
         <v>147</v>
       </c>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="151"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="152" t="s">
+      <c r="C7" s="121" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19737,19 +19697,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="157"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="155" t="s">
+      <c r="G9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="156"/>
-      <c r="I9" s="157"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19758,19 +19718,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="163" t="s">
+      <c r="C10" s="164" t="s">
         <v>148</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="35">
         <v>12</v>
       </c>
-      <c r="G10" s="162" t="s">
+      <c r="G10" s="163" t="s">
         <v>149</v>
       </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="126"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="108" t="s">
         <v>150</v>
       </c>
@@ -19779,26 +19739,26 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="126"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="126"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -19806,67 +19766,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="139"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="126"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="126"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="126"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="129"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="132"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19886,57 +19846,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="133"/>
-      <c r="E19" s="134" t="s">
+      <c r="D19" s="144"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="136"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="117"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="118"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="122"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -19956,36 +19916,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -20001,6 +19961,426 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="1.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.69921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.8984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="47.25" customHeight="1">
+      <c r="B1" s="113" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+    </row>
+    <row r="2" spans="2:10" ht="7.5" customHeight="1">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="106" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="107" t="s">
+        <v>153</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="162" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
+    </row>
+    <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="118" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
+    </row>
+    <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="121" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
+    </row>
+    <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="124" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="37">
+        <v>1</v>
+      </c>
+      <c r="C10" s="164" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="35">
+        <v>4</v>
+      </c>
+      <c r="G10" s="163" t="s">
+        <v>157</v>
+      </c>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="108" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="37">
+        <v>2</v>
+      </c>
+      <c r="C11" s="164" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="35">
+        <v>8</v>
+      </c>
+      <c r="G11" s="163" t="s">
+        <v>160</v>
+      </c>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="108" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="38">
+        <v>3</v>
+      </c>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="36"/>
+    </row>
+    <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="37">
+        <v>4</v>
+      </c>
+      <c r="C13" s="158"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="36"/>
+    </row>
+    <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="37">
+        <v>5</v>
+      </c>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
+      <c r="J14" s="36"/>
+    </row>
+    <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="38">
+        <v>6</v>
+      </c>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
+      <c r="J15" s="36"/>
+    </row>
+    <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="37">
+        <v>7</v>
+      </c>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
+      <c r="J16" s="36"/>
+    </row>
+    <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="138" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="45">
+        <f>SUM(F10:F16)</f>
+        <v>12</v>
+      </c>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="46"/>
+    </row>
+    <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B18" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="20"/>
+    </row>
+    <row r="19" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="144" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="144"/>
+      <c r="E19" s="145" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
+    </row>
+    <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="39">
+        <v>1</v>
+      </c>
+      <c r="C20" s="148"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
+    </row>
+    <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="40">
+        <v>2</v>
+      </c>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
+    </row>
+    <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B22" s="41">
+        <v>3</v>
+      </c>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.6">
+      <c r="B24" s="43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="15.6">
+      <c r="B25" s="43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="15.6">
+      <c r="B26" s="43"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.6">
+      <c r="B27" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J27"/>
   <sheetViews>
@@ -20024,17 +20404,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20052,19 +20432,19 @@
         <v>0</v>
       </c>
       <c r="C3" s="106" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="107" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="H3" s="44" t="s">
         <v>17</v>
@@ -20091,46 +20471,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="164" t="s">
-        <v>154</v>
-      </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="148"/>
+      <c r="C5" s="162" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="149" t="s">
-        <v>155</v>
-      </c>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="151"/>
+      <c r="C6" s="118" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="152" t="s">
-        <v>152</v>
-      </c>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
+      <c r="C7" s="121" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20149,19 +20529,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="157"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="155" t="s">
+      <c r="G9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="156"/>
-      <c r="I9" s="157"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20170,55 +20550,55 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="163" t="s">
-        <v>156</v>
-      </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
+      <c r="C10" s="164" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="162" t="s">
-        <v>157</v>
-      </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="126"/>
+      <c r="G10" s="163" t="s">
+        <v>167</v>
+      </c>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="108" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="163" t="s">
-        <v>159</v>
-      </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
+      <c r="C11" s="164" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="35">
-        <v>8</v>
-      </c>
-      <c r="G11" s="162" t="s">
-        <v>160</v>
-      </c>
-      <c r="H11" s="125"/>
-      <c r="I11" s="126"/>
+        <v>6</v>
+      </c>
+      <c r="G11" s="163" t="s">
+        <v>170</v>
+      </c>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="108" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="126"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20226,67 +20606,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="139"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="126"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="126"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="126"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="129"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
-        <v>12</v>
-      </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="132"/>
+        <v>10</v>
+      </c>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20306,57 +20686,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="133"/>
-      <c r="E19" s="134" t="s">
+      <c r="D19" s="144"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="136"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="117"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="118"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="122"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -20376,426 +20756,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J27"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="1.19921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.19921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.69921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.8984375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="144" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-    </row>
-    <row r="2" spans="2:10" ht="7.5" customHeight="1">
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
-      <c r="B3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="165"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="148"/>
-    </row>
-    <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="149"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="151"/>
-    </row>
-    <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="152"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
-    </row>
-    <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="20"/>
-    </row>
-    <row r="9" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="155" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="155" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="156"/>
-      <c r="I9" s="157"/>
-      <c r="J9" s="34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="37">
-        <v>1</v>
-      </c>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="36"/>
-    </row>
-    <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="37">
-        <v>2</v>
-      </c>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="126"/>
-      <c r="J11" s="36"/>
-    </row>
-    <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="38">
-        <v>3</v>
-      </c>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="126"/>
-      <c r="J12" s="36"/>
-    </row>
-    <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="37">
-        <v>4</v>
-      </c>
-      <c r="C13" s="158"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="36"/>
-    </row>
-    <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="37">
-        <v>5</v>
-      </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="126"/>
-      <c r="J14" s="36"/>
-    </row>
-    <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="38">
-        <v>6</v>
-      </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="126"/>
-      <c r="J15" s="36"/>
-    </row>
-    <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="37">
-        <v>7</v>
-      </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="36"/>
-    </row>
-    <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="127" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="45">
-        <f>SUM(F10:F16)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="46"/>
-    </row>
-    <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B18" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="133" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="133"/>
-      <c r="E19" s="134" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="136"/>
-    </row>
-    <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="39">
-        <v>1</v>
-      </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="117"/>
-    </row>
-    <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="40">
-        <v>2</v>
-      </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117"/>
-    </row>
-    <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B22" s="41">
-        <v>3</v>
-      </c>
-      <c r="C22" s="118"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="122"/>
-    </row>
-    <row r="24" spans="2:10" ht="15.6">
-      <c r="B24" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="15.6">
-      <c r="B25" s="43" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="15.6">
-      <c r="B26" s="43"/>
-    </row>
-    <row r="27" spans="2:10" ht="15.6">
-      <c r="B27" s="43"/>
-    </row>
-  </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -20834,17 +20824,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20894,39 +20884,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="165"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="148"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="149"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="151"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="152"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20945,19 +20935,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="157"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="155" t="s">
+      <c r="G9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="156"/>
-      <c r="I9" s="157"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20966,39 +20956,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="126"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="126"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="126"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -21006,67 +20996,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="139"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="126"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="126"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="126"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="129"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="132"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -21086,57 +21076,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="133"/>
-      <c r="E19" s="134" t="s">
+      <c r="D19" s="144"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="136"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="117"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="118"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="122"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -21156,36 +21146,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -21224,17 +21214,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -21284,39 +21274,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="165"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="148"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="149"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="151"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="152"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -21335,19 +21325,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="157"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="155" t="s">
+      <c r="G9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="156"/>
-      <c r="I9" s="157"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -21356,39 +21346,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="126"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="126"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="126"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -21396,67 +21386,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="139"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="126"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="126"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="126"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="129"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="132"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -21476,57 +21466,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="133"/>
-      <c r="E19" s="134" t="s">
+      <c r="D19" s="144"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="136"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="117"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="118"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="122"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -21546,432 +21536,42 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J27"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="1.19921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.19921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.69921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.8984375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="144" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-    </row>
-    <row r="2" spans="2:10" ht="7.5" customHeight="1">
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
-      <c r="B3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="165"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="148"/>
-    </row>
-    <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="149"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="151"/>
-    </row>
-    <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="152"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
-    </row>
-    <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="20"/>
-    </row>
-    <row r="9" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="155" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="155" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="156"/>
-      <c r="I9" s="157"/>
-      <c r="J9" s="34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="37">
-        <v>1</v>
-      </c>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="36"/>
-    </row>
-    <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="37">
-        <v>2</v>
-      </c>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="126"/>
-      <c r="J11" s="36"/>
-    </row>
-    <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="38">
-        <v>3</v>
-      </c>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="126"/>
-      <c r="J12" s="36"/>
-    </row>
-    <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="37">
-        <v>4</v>
-      </c>
-      <c r="C13" s="158"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="36"/>
-    </row>
-    <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="37">
-        <v>5</v>
-      </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="126"/>
-      <c r="J14" s="36"/>
-    </row>
-    <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="38">
-        <v>6</v>
-      </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="126"/>
-      <c r="J15" s="36"/>
-    </row>
-    <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="37">
-        <v>7</v>
-      </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="36"/>
-    </row>
-    <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="127" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="45">
-        <f>SUM(F10:F16)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="46"/>
-    </row>
-    <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B18" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="133" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="133"/>
-      <c r="E19" s="134" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="136"/>
-    </row>
-    <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="39">
-        <v>1</v>
-      </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="117"/>
-    </row>
-    <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="40">
-        <v>2</v>
-      </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117"/>
-    </row>
-    <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B22" s="41">
-        <v>3</v>
-      </c>
-      <c r="C22" s="118"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="122"/>
-    </row>
-    <row r="24" spans="2:10" ht="15.6">
-      <c r="B24" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="15.6">
-      <c r="B25" s="43" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="15.6">
-      <c r="B26" s="43"/>
-    </row>
-    <row r="27" spans="2:10" ht="15.6">
-      <c r="B27" s="43"/>
-    </row>
-  </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -22571,17 +22171,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -22638,46 +22238,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="146" t="s">
+      <c r="C5" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="148"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="149" t="s">
+      <c r="C6" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="151"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="152" t="s">
+      <c r="C7" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -22696,19 +22296,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="157"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="155" t="s">
+      <c r="G9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="156"/>
-      <c r="I9" s="157"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -22717,19 +22317,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="141" t="s">
+      <c r="C10" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="101">
         <v>0.5</v>
       </c>
-      <c r="G10" s="140" t="s">
+      <c r="G10" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="126"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="104" t="s">
         <v>52</v>
       </c>
@@ -22738,19 +22338,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="141" t="s">
+      <c r="C11" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="101">
         <v>1</v>
       </c>
-      <c r="G11" s="140" t="s">
+      <c r="G11" s="129" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="125"/>
-      <c r="I11" s="126"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="104" t="s">
         <v>52</v>
       </c>
@@ -22759,19 +22359,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="142" t="s">
+      <c r="C12" s="132" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="101">
         <v>4</v>
       </c>
-      <c r="G12" s="143" t="s">
+      <c r="G12" s="133" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="125"/>
-      <c r="I12" s="126"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="104" t="s">
         <v>52</v>
       </c>
@@ -22780,19 +22380,19 @@
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="137" t="s">
+      <c r="C13" s="134" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="138"/>
-      <c r="E13" s="139"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="101">
         <v>2</v>
       </c>
-      <c r="G13" s="140" t="s">
+      <c r="G13" s="129" t="s">
         <v>82</v>
       </c>
-      <c r="H13" s="125"/>
-      <c r="I13" s="126"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="104" t="s">
         <v>52</v>
       </c>
@@ -22801,55 +22401,55 @@
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="141"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="101"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="126"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="104"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="101"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="126"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="101"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="129"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="105">
         <f>SUM(F10:F16)</f>
         <v>7.5</v>
       </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="132"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -22869,57 +22469,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="133"/>
-      <c r="E19" s="134" t="s">
+      <c r="D19" s="144"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="136"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="117"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="118"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="122"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -22939,36 +22539,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -23007,17 +22607,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23074,46 +22674,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="146" t="s">
+      <c r="C5" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="148"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="149" t="s">
+      <c r="C6" s="118" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="151"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="152" t="s">
+      <c r="C7" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23132,19 +22732,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="157"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="155" t="s">
+      <c r="G9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="156"/>
-      <c r="I9" s="157"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23153,19 +22753,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="141" t="s">
+      <c r="C10" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="35">
         <v>2</v>
       </c>
-      <c r="G10" s="140" t="s">
+      <c r="G10" s="129" t="s">
         <v>84</v>
       </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="126"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="104" t="s">
         <v>52</v>
       </c>
@@ -23174,19 +22774,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="142" t="s">
+      <c r="C11" s="132" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="35">
         <v>6</v>
       </c>
-      <c r="G11" s="140" t="s">
+      <c r="G11" s="129" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="125"/>
-      <c r="I11" s="126"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="104" t="s">
         <v>52</v>
       </c>
@@ -23195,19 +22795,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="141" t="s">
+      <c r="C12" s="127" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="35">
         <v>3</v>
       </c>
-      <c r="G12" s="143" t="s">
+      <c r="G12" s="133" t="s">
         <v>87</v>
       </c>
-      <c r="H12" s="125"/>
-      <c r="I12" s="126"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="104" t="s">
         <v>52</v>
       </c>
@@ -23217,67 +22817,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="139"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="126"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="126"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="126"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="129"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>11</v>
       </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="132"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23297,57 +22897,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="133"/>
-      <c r="E19" s="134" t="s">
+      <c r="D19" s="144"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="136"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="117"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="118"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="122"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -23367,12 +22967,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="G16:I16"/>
@@ -23381,22 +22991,12 @@
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -23435,17 +23035,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23505,43 +23105,43 @@
       <c r="C5" s="159" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="148"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="149" t="s">
+      <c r="C6" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="151"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="152" t="s">
+      <c r="C7" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23560,19 +23160,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="157"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="155" t="s">
+      <c r="G9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="156"/>
-      <c r="I9" s="157"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23581,19 +23181,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="141" t="s">
+      <c r="C10" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="140" t="s">
+      <c r="G10" s="129" t="s">
         <v>89</v>
       </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="126"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="104" t="s">
         <v>52</v>
       </c>
@@ -23602,19 +23202,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="142" t="s">
+      <c r="C11" s="132" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="35">
         <v>6</v>
       </c>
-      <c r="G11" s="143" t="s">
+      <c r="G11" s="133" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="125"/>
-      <c r="I11" s="126"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="104" t="s">
         <v>52</v>
       </c>
@@ -23623,19 +23223,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="141" t="s">
+      <c r="C12" s="127" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="35">
         <v>2</v>
       </c>
-      <c r="G12" s="143" t="s">
+      <c r="G12" s="133" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="125"/>
-      <c r="I12" s="126"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="104" t="s">
         <v>52</v>
       </c>
@@ -23645,67 +23245,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="139"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="126"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="126"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="126"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="129"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="132"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23725,57 +23325,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="133"/>
-      <c r="E19" s="134" t="s">
+      <c r="D19" s="144"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="136"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="117"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="118"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="122"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -23795,36 +23395,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -23863,17 +23463,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23930,46 +23530,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="146" t="s">
+      <c r="C5" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="148"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="149" t="s">
+      <c r="C6" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="151"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="152" t="s">
+      <c r="C7" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23988,19 +23588,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="157"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="155" t="s">
+      <c r="G9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="156"/>
-      <c r="I9" s="157"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -24009,19 +23609,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="141" t="s">
+      <c r="C10" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="140" t="s">
+      <c r="G10" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="126"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="104" t="s">
         <v>52</v>
       </c>
@@ -24030,19 +23630,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="141" t="s">
+      <c r="C11" s="127" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="140" t="s">
+      <c r="G11" s="129" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="125"/>
-      <c r="I11" s="126"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="104" t="s">
         <v>52</v>
       </c>
@@ -24051,19 +23651,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="141" t="s">
+      <c r="C12" s="127" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="35">
         <v>4</v>
       </c>
-      <c r="G12" s="140" t="s">
+      <c r="G12" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="125"/>
-      <c r="I12" s="126"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="104" t="s">
         <v>52</v>
       </c>
@@ -24073,67 +23673,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="139"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="126"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="126"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="126"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="129"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="132"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -24153,18 +23753,18 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="133"/>
-      <c r="E19" s="134" t="s">
+      <c r="D19" s="144"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="136"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
@@ -24173,41 +23773,41 @@
       <c r="C20" s="160" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="114"/>
+      <c r="D20" s="149"/>
       <c r="E20" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="117"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="118"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="122"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -24227,36 +23827,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -24295,17 +23895,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -24362,46 +23962,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="146" t="s">
+      <c r="C5" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="148"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="149" t="s">
+      <c r="C6" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="151"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="152" t="s">
+      <c r="C7" s="121" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -24420,19 +24020,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="157"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="155" t="s">
+      <c r="G9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="156"/>
-      <c r="I9" s="157"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -24441,19 +24041,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="141" t="s">
+      <c r="C10" s="127" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="35">
         <v>6</v>
       </c>
-      <c r="G10" s="140" t="s">
+      <c r="G10" s="129" t="s">
         <v>94</v>
       </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="126"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="104" t="s">
         <v>52</v>
       </c>
@@ -24462,19 +24062,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="141" t="s">
+      <c r="C11" s="127" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="140" t="s">
+      <c r="G11" s="129" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="125"/>
-      <c r="I11" s="126"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="104" t="s">
         <v>52</v>
       </c>
@@ -24483,13 +24083,13 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="142"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="143"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="126"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="104"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -24497,67 +24097,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="139"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="126"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="126"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="126"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="129"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>10</v>
       </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="132"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -24577,18 +24177,18 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="133"/>
-      <c r="E19" s="134" t="s">
+      <c r="D19" s="144"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="136"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
@@ -24597,41 +24197,41 @@
       <c r="C20" s="160" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="114"/>
+      <c r="D20" s="149"/>
       <c r="E20" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="117"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="118"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="122"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -24651,36 +24251,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -24719,17 +24319,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -24786,46 +24386,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="146" t="s">
+      <c r="C5" s="115" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="148"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="149" t="s">
+      <c r="C6" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="151"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="152" t="s">
+      <c r="C7" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -24844,19 +24444,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="157"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="155" t="s">
+      <c r="G9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="156"/>
-      <c r="I9" s="157"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -24865,19 +24465,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="141" t="s">
+      <c r="C10" s="127" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="140" t="s">
+      <c r="G10" s="129" t="s">
         <v>97</v>
       </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="126"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="104" t="s">
         <v>52</v>
       </c>
@@ -24886,19 +24486,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="141" t="s">
+      <c r="C11" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="35">
         <v>2</v>
       </c>
-      <c r="G11" s="140" t="s">
+      <c r="G11" s="129" t="s">
         <v>75</v>
       </c>
-      <c r="H11" s="125"/>
-      <c r="I11" s="126"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="104" t="s">
         <v>52</v>
       </c>
@@ -24907,19 +24507,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="142" t="s">
+      <c r="C12" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="35">
         <v>6</v>
       </c>
-      <c r="G12" s="143" t="s">
+      <c r="G12" s="133" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="125"/>
-      <c r="I12" s="126"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="104" t="s">
         <v>52</v>
       </c>
@@ -24928,19 +24528,19 @@
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="137" t="s">
+      <c r="C13" s="134" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="138"/>
-      <c r="E13" s="139"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="35">
         <v>2</v>
       </c>
-      <c r="G13" s="140" t="s">
+      <c r="G13" s="129" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="125"/>
-      <c r="I13" s="126"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="104" t="s">
         <v>52</v>
       </c>
@@ -24949,55 +24549,55 @@
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="126"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="126"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="129"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>14</v>
       </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="132"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -25017,57 +24617,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="133"/>
-      <c r="E19" s="134" t="s">
+      <c r="D19" s="144"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="136"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="117"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="118"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="122"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -25087,36 +24687,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">

--- a/学生提交材料/个人日报/个人日报_侯永康.xlsx
+++ b/学生提交材料/个人日报/个人日报_侯永康.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176" firstSheet="2" activeTab="15"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176" firstSheet="2" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="180">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1287,6 +1287,38 @@
   </si>
   <si>
     <t>根据世纪情况撰写报告</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯永康</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.01.18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒店管理系统</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>答辩准备文档ppt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.1.18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备答辩所需文档材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组共同完成文档，ppt</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2774,6 +2806,116 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2824,116 +2966,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2948,16 +2980,16 @@
     <xf numFmtId="0" fontId="64" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3026,7 +3058,7 @@
         <xdr:cNvPr id="3080" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000080C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000080C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3047,7 +3079,7 @@
           <xdr:cNvPr id="3081" name="Freeform 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000090C0000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000090C0000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3202,7 +3234,7 @@
           <xdr:cNvPr id="3082" name="Freeform 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A0C0000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A0C0000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4594,7 +4626,7 @@
           <xdr:cNvPr id="3083" name="Freeform 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B0C0000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B0C0000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5409,7 +5441,7 @@
           <xdr:cNvPr id="3084" name="Freeform 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C0C0000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C0C0000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6968,7 +7000,7 @@
           <xdr:cNvPr id="3085" name="Freeform 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D0C0000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D0C0000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8513,7 +8545,7 @@
           <xdr:cNvPr id="3086" name="Freeform 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E0C0000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E0C0000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9514,7 +9546,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64C6AEC7-D6DB-421D-AFCC-5032A29228A3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64C6AEC7-D6DB-421D-AFCC-5032A29228A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9593,7 +9625,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7924CB87-139A-4151-A923-E6C34B3A4A62}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7924CB87-139A-4151-A923-E6C34B3A4A62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9672,7 +9704,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4CDC39A9-9223-4FB4-8BD5-51889B5F93A9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CDC39A9-9223-4FB4-8BD5-51889B5F93A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9751,7 +9783,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{52344C10-06A6-46D3-8B6D-CB9BA5F62B0B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52344C10-06A6-46D3-8B6D-CB9BA5F62B0B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9830,7 +9862,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D24B0C4D-D632-48F5-B58A-E106EA2FEA90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D24B0C4D-D632-48F5-B58A-E106EA2FEA90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9909,7 +9941,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9DC785F3-D96F-4B7B-B304-6BA696CAA6C9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DC785F3-D96F-4B7B-B304-6BA696CAA6C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9988,7 +10020,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{65D7A1B8-46FC-4E0C-95DF-793A44A1606F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65D7A1B8-46FC-4E0C-95DF-793A44A1606F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10067,7 +10099,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29D9835E-C84B-4C51-B84B-27F6EA03D786}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29D9835E-C84B-4C51-B84B-27F6EA03D786}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10146,7 +10178,7 @@
         <xdr:cNvPr id="4104" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008100000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008100000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10167,7 +10199,7 @@
           <xdr:cNvPr id="4105" name="Freeform 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009100000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009100000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10322,7 +10354,7 @@
           <xdr:cNvPr id="4106" name="Freeform 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A100000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A100000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11714,7 +11746,7 @@
           <xdr:cNvPr id="4107" name="Freeform 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B100000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B100000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12529,7 +12561,7 @@
           <xdr:cNvPr id="4108" name="Freeform 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C100000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C100000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14088,7 +14120,7 @@
           <xdr:cNvPr id="4109" name="Freeform 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000D100000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D100000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15633,7 +15665,7 @@
           <xdr:cNvPr id="4110" name="Freeform 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000E100000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E100000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16634,7 +16666,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{364415B3-9FA3-46FD-B2EE-2D1E82F564BA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{364415B3-9FA3-46FD-B2EE-2D1E82F564BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16713,7 +16745,7 @@
         <xdr:cNvPr id="2050" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16792,7 +16824,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E7A8128-D999-4C13-91B0-F974226B4F14}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E7A8128-D999-4C13-91B0-F974226B4F14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16871,7 +16903,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0ED7B0B0-AF00-4754-A9B1-F6266D2BEA32}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ED7B0B0-AF00-4754-A9B1-F6266D2BEA32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16950,7 +16982,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B105078-058B-4F7F-8B52-188E14B44B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B105078-058B-4F7F-8B52-188E14B44B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17029,7 +17061,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DE6DF39B-86B0-4E5E-B074-3E832FEB1B13}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE6DF39B-86B0-4E5E-B074-3E832FEB1B13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17108,7 +17140,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E2305AC-890F-448D-94DD-D55DBCD02906}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E2305AC-890F-448D-94DD-D55DBCD02906}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17876,17 +17908,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -17943,46 +17975,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="162" t="s">
+      <c r="C5" s="164" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="149" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="152" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -18001,19 +18033,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18022,19 +18054,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="128" t="s">
+      <c r="C10" s="123" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="35">
         <v>6</v>
       </c>
-      <c r="G10" s="163" t="s">
+      <c r="G10" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="108" t="s">
         <v>108</v>
       </c>
@@ -18043,19 +18075,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="164" t="s">
+      <c r="C11" s="163" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="35">
         <v>2</v>
       </c>
-      <c r="G11" s="163" t="s">
+      <c r="G11" s="162" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="108" t="s">
         <v>108</v>
       </c>
@@ -18064,19 +18096,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="164" t="s">
+      <c r="C12" s="163" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="35">
         <v>1</v>
       </c>
-      <c r="G12" s="163" t="s">
+      <c r="G12" s="162" t="s">
         <v>107</v>
       </c>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="108" t="s">
         <v>108</v>
       </c>
@@ -18086,67 +18118,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>9</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -18166,57 +18198,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -18236,36 +18268,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -18304,17 +18336,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18371,46 +18403,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="162" t="s">
+      <c r="C5" s="164" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="149" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="152" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -18429,19 +18461,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18450,19 +18482,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="128" t="s">
+      <c r="C10" s="123" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="35">
         <v>6</v>
       </c>
-      <c r="G10" s="163" t="s">
+      <c r="G10" s="162" t="s">
         <v>115</v>
       </c>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="108" t="s">
         <v>116</v>
       </c>
@@ -18471,19 +18503,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="164" t="s">
+      <c r="C11" s="163" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="163" t="s">
+      <c r="G11" s="162" t="s">
         <v>118</v>
       </c>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="108" t="s">
         <v>119</v>
       </c>
@@ -18492,13 +18524,13 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -18506,67 +18538,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>10</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -18586,57 +18618,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -18656,36 +18688,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -18724,17 +18756,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18791,46 +18823,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="162" t="s">
+      <c r="C5" s="164" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="149" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="152" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -18849,19 +18881,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18870,19 +18902,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="164" t="s">
+      <c r="C10" s="163" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="163" t="s">
+      <c r="G10" s="162" t="s">
         <v>126</v>
       </c>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="108" t="s">
         <v>127</v>
       </c>
@@ -18891,19 +18923,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="164" t="s">
+      <c r="C11" s="163" t="s">
         <v>128</v>
       </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="137" t="s">
+      <c r="G11" s="124" t="s">
         <v>129</v>
       </c>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="108" t="s">
         <v>127</v>
       </c>
@@ -18912,19 +18944,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="164" t="s">
+      <c r="C12" s="163" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="35">
         <v>3</v>
       </c>
-      <c r="G12" s="163" t="s">
+      <c r="G12" s="162" t="s">
         <v>131</v>
       </c>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="108" t="s">
         <v>132</v>
       </c>
@@ -18934,67 +18966,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>11</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19014,57 +19046,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -19084,36 +19116,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -19152,17 +19184,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19219,46 +19251,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="162" t="s">
+      <c r="C5" s="164" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="149" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="152" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19277,19 +19309,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19298,19 +19330,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="164" t="s">
+      <c r="C10" s="163" t="s">
         <v>138</v>
       </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="35">
         <v>9</v>
       </c>
-      <c r="G10" s="163" t="s">
+      <c r="G10" s="162" t="s">
         <v>139</v>
       </c>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="108" t="s">
         <v>142</v>
       </c>
@@ -19319,19 +19351,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="164" t="s">
+      <c r="C11" s="163" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="35">
         <v>3</v>
       </c>
-      <c r="G11" s="163" t="s">
+      <c r="G11" s="162" t="s">
         <v>141</v>
       </c>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="108" t="s">
         <v>142</v>
       </c>
@@ -19340,13 +19372,13 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -19354,67 +19386,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19434,57 +19466,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -19504,36 +19536,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -19572,17 +19604,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19639,46 +19671,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="162" t="s">
+      <c r="C5" s="164" t="s">
         <v>146</v>
       </c>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="149" t="s">
         <v>147</v>
       </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="152" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -19697,19 +19729,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19718,19 +19750,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="164" t="s">
+      <c r="C10" s="163" t="s">
         <v>148</v>
       </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="35">
         <v>12</v>
       </c>
-      <c r="G10" s="163" t="s">
+      <c r="G10" s="162" t="s">
         <v>149</v>
       </c>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="108" t="s">
         <v>150</v>
       </c>
@@ -19739,26 +19771,26 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -19766,67 +19798,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -19846,57 +19878,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -19916,36 +19948,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -19984,17 +20016,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20051,46 +20083,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="162" t="s">
+      <c r="C5" s="164" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="149" t="s">
         <v>155</v>
       </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="152" t="s">
         <v>152</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20109,19 +20141,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20130,19 +20162,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="164" t="s">
+      <c r="C10" s="163" t="s">
         <v>156</v>
       </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="163" t="s">
+      <c r="G10" s="162" t="s">
         <v>157</v>
       </c>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="108" t="s">
         <v>158</v>
       </c>
@@ -20151,19 +20183,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="164" t="s">
+      <c r="C11" s="163" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="35">
         <v>8</v>
       </c>
-      <c r="G11" s="163" t="s">
+      <c r="G11" s="162" t="s">
         <v>160</v>
       </c>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="108" t="s">
         <v>161</v>
       </c>
@@ -20172,13 +20204,13 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20186,67 +20218,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20266,57 +20298,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -20336,36 +20368,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -20384,7 +20416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -20404,17 +20436,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20471,46 +20503,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="162" t="s">
+      <c r="C5" s="164" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="149" t="s">
         <v>163</v>
       </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="152" t="s">
         <v>163</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20529,19 +20561,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20550,19 +20582,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="164" t="s">
+      <c r="C10" s="163" t="s">
         <v>166</v>
       </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="163" t="s">
+      <c r="G10" s="162" t="s">
         <v>167</v>
       </c>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="108" t="s">
         <v>168</v>
       </c>
@@ -20571,19 +20603,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="164" t="s">
+      <c r="C11" s="163" t="s">
         <v>169</v>
       </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="35">
         <v>6</v>
       </c>
-      <c r="G11" s="163" t="s">
+      <c r="G11" s="162" t="s">
         <v>170</v>
       </c>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="108" t="s">
         <v>171</v>
       </c>
@@ -20592,13 +20624,13 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20606,67 +20638,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>10</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -20686,57 +20718,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -20756,36 +20788,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -20804,8 +20836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -20824,17 +20856,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -20851,19 +20883,27 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="106" t="s">
+        <v>172</v>
+      </c>
       <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>173</v>
+      </c>
       <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="107" t="s">
+        <v>174</v>
+      </c>
       <c r="H3" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20883,40 +20923,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="165"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="C5" s="164" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="C6" s="149" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="C7" s="152" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -20935,19 +20981,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -20956,39 +21002,47 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="36"/>
+      <c r="C10" s="163" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="35">
+        <v>4</v>
+      </c>
+      <c r="G10" s="162" t="s">
+        <v>178</v>
+      </c>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="108" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -20996,67 +21050,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
+        <v>4</v>
+      </c>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -21076,57 +21130,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -21146,36 +21200,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -21214,17 +21268,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -21274,39 +21328,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="165"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -21325,19 +21379,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -21346,39 +21400,39 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -21386,67 +21440,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -21466,57 +21520,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -21536,36 +21590,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -22171,17 +22225,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -22238,46 +22292,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="115" t="s">
+      <c r="C5" s="146" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="149" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="152" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -22296,19 +22350,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -22317,19 +22371,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="127" t="s">
+      <c r="C10" s="141" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="101">
         <v>0.5</v>
       </c>
-      <c r="G10" s="129" t="s">
+      <c r="G10" s="140" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="104" t="s">
         <v>52</v>
       </c>
@@ -22338,19 +22392,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="101">
         <v>1</v>
       </c>
-      <c r="G11" s="129" t="s">
+      <c r="G11" s="140" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="104" t="s">
         <v>52</v>
       </c>
@@ -22359,19 +22413,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="132" t="s">
+      <c r="C12" s="142" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="101">
         <v>4</v>
       </c>
-      <c r="G12" s="133" t="s">
+      <c r="G12" s="143" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="104" t="s">
         <v>52</v>
       </c>
@@ -22380,19 +22434,19 @@
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="134" t="s">
+      <c r="C13" s="137" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="101">
         <v>2</v>
       </c>
-      <c r="G13" s="129" t="s">
+      <c r="G13" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="104" t="s">
         <v>52</v>
       </c>
@@ -22401,55 +22455,55 @@
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="127"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="141"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="101"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="104"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="101"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="101"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="105">
         <f>SUM(F10:F16)</f>
         <v>7.5</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -22469,57 +22523,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -22539,36 +22593,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -22607,17 +22661,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -22674,46 +22728,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="115" t="s">
+      <c r="C5" s="146" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="149" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="152" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -22732,19 +22786,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -22753,19 +22807,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="127" t="s">
+      <c r="C10" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="35">
         <v>2</v>
       </c>
-      <c r="G10" s="129" t="s">
+      <c r="G10" s="140" t="s">
         <v>84</v>
       </c>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="104" t="s">
         <v>52</v>
       </c>
@@ -22774,19 +22828,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="132" t="s">
+      <c r="C11" s="142" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="35">
         <v>6</v>
       </c>
-      <c r="G11" s="129" t="s">
+      <c r="G11" s="140" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="104" t="s">
         <v>52</v>
       </c>
@@ -22795,19 +22849,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="127" t="s">
+      <c r="C12" s="141" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="35">
         <v>3</v>
       </c>
-      <c r="G12" s="133" t="s">
+      <c r="G12" s="143" t="s">
         <v>87</v>
       </c>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="104" t="s">
         <v>52</v>
       </c>
@@ -22817,67 +22871,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>11</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -22897,57 +22951,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -22967,6 +23021,28 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C22:D22"/>
@@ -22975,28 +23051,6 @@
     <mergeCell ref="E19:J19"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -23035,17 +23089,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23105,43 +23159,43 @@
       <c r="C5" s="159" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="149" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="152" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23160,19 +23214,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23181,19 +23235,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="127" t="s">
+      <c r="C10" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="129" t="s">
+      <c r="G10" s="140" t="s">
         <v>89</v>
       </c>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="104" t="s">
         <v>52</v>
       </c>
@@ -23202,19 +23256,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="132" t="s">
+      <c r="C11" s="142" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="35">
         <v>6</v>
       </c>
-      <c r="G11" s="133" t="s">
+      <c r="G11" s="143" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="104" t="s">
         <v>52</v>
       </c>
@@ -23223,19 +23277,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="127" t="s">
+      <c r="C12" s="141" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="35">
         <v>2</v>
       </c>
-      <c r="G12" s="133" t="s">
+      <c r="G12" s="143" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="104" t="s">
         <v>52</v>
       </c>
@@ -23245,67 +23299,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23325,57 +23379,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -23395,36 +23449,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -23463,17 +23517,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23530,46 +23584,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="115" t="s">
+      <c r="C5" s="146" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="149" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="152" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -23588,19 +23642,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -23609,19 +23663,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="127" t="s">
+      <c r="C10" s="141" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="129" t="s">
+      <c r="G10" s="140" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="104" t="s">
         <v>52</v>
       </c>
@@ -23630,19 +23684,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="141" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="129" t="s">
+      <c r="G11" s="140" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="104" t="s">
         <v>52</v>
       </c>
@@ -23651,19 +23705,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="127" t="s">
+      <c r="C12" s="141" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="35">
         <v>4</v>
       </c>
-      <c r="G12" s="129" t="s">
+      <c r="G12" s="140" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="104" t="s">
         <v>52</v>
       </c>
@@ -23673,67 +23727,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -23753,18 +23807,18 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
@@ -23773,41 +23827,41 @@
       <c r="C20" s="160" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="149"/>
+      <c r="D20" s="114"/>
       <c r="E20" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -23827,36 +23881,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -23895,17 +23949,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -23962,46 +24016,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="115" t="s">
+      <c r="C5" s="146" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="149" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="152" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -24020,19 +24074,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -24041,19 +24095,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="127" t="s">
+      <c r="C10" s="141" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="35">
         <v>6</v>
       </c>
-      <c r="G10" s="129" t="s">
+      <c r="G10" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="104" t="s">
         <v>52</v>
       </c>
@@ -24062,19 +24116,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="141" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="35">
         <v>4</v>
       </c>
-      <c r="G11" s="129" t="s">
+      <c r="G11" s="140" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="104" t="s">
         <v>52</v>
       </c>
@@ -24083,13 +24137,13 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="132"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="C12" s="142"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="G12" s="143"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="104"/>
     </row>
     <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -24097,67 +24151,67 @@
         <v>4</v>
       </c>
       <c r="C13" s="158"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>10</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -24177,18 +24231,18 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
@@ -24197,41 +24251,41 @@
       <c r="C20" s="160" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="149"/>
+      <c r="D20" s="114"/>
       <c r="E20" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -24251,36 +24305,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -24319,17 +24373,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -24386,46 +24440,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="115" t="s">
+      <c r="C5" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="149" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="152" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -24444,19 +24498,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -24465,19 +24519,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="127" t="s">
+      <c r="C10" s="141" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="129" t="s">
+      <c r="G10" s="140" t="s">
         <v>97</v>
       </c>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="104" t="s">
         <v>52</v>
       </c>
@@ -24486,19 +24540,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="141" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="35">
         <v>2</v>
       </c>
-      <c r="G11" s="129" t="s">
+      <c r="G11" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="104" t="s">
         <v>52</v>
       </c>
@@ -24507,19 +24561,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="132" t="s">
+      <c r="C12" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="35">
         <v>6</v>
       </c>
-      <c r="G12" s="133" t="s">
+      <c r="G12" s="143" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="104" t="s">
         <v>52</v>
       </c>
@@ -24528,19 +24582,19 @@
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="134" t="s">
+      <c r="C13" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="35">
         <v>2</v>
       </c>
-      <c r="G13" s="129" t="s">
+      <c r="G13" s="140" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="104" t="s">
         <v>52</v>
       </c>
@@ -24549,55 +24603,55 @@
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>14</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -24617,57 +24671,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -24687,36 +24741,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
